--- a/STAT/finalStat/Time_Serie.xlsx
+++ b/STAT/finalStat/Time_Serie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sunny\Desktop\Problem-solving\STAT\finalStat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481B35E8-A5FF-4556-82C6-137C6E1A0CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F497F812-B55E-4872-B7E5-6985E8EFCBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{108CCCE1-71B9-4069-9CF7-4818888333E2}"/>
+    <workbookView xWindow="28680" yWindow="-3270" windowWidth="15600" windowHeight="18840" activeTab="1" xr2:uid="{108CCCE1-71B9-4069-9CF7-4818888333E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
   <si>
     <t>Year</t>
   </si>
@@ -158,7 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -173,13 +173,11 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -3961,958 +3959,784 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C950DD-7207-47A4-9DA4-DA0D823E4224}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13">
+      <c r="B2" s="13">
         <v>10500</v>
       </c>
-      <c r="E2" s="5">
+      <c r="C2" s="5">
         <v>10000</v>
       </c>
-      <c r="F2" s="5">
+      <c r="D2" s="5">
         <v>10000</v>
       </c>
-      <c r="K2" s="11">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6">
-        <v>33</v>
-      </c>
-      <c r="D3" s="14">
+      <c r="B3" s="14">
         <v>12300</v>
       </c>
-      <c r="E3" s="8">
-        <f>E2+0.1*($D2-E2)</f>
+      <c r="C3" s="8">
+        <f>C2+0.1*($B2-C2)</f>
         <v>10050</v>
       </c>
-      <c r="F3" s="8">
-        <f>F2+0.5*($D2-F2)</f>
+      <c r="D3" s="8">
+        <f>D2+0.5*($B2-D2)</f>
         <v>10250</v>
       </c>
-      <c r="K3" s="12">
-        <v>12300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6">
-        <v>65</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="B4" s="14">
         <v>9800</v>
       </c>
-      <c r="E4" s="8">
-        <f t="shared" ref="E4:E12" si="0">E3+0.1*($D3-E3)</f>
+      <c r="C4" s="8">
+        <f t="shared" ref="C4:C12" si="0">C3+0.1*($B3-C3)</f>
         <v>10275</v>
       </c>
-      <c r="F4" s="8">
-        <f t="shared" ref="F4:F12" si="1">F3+0.5*($D3-F3)</f>
+      <c r="D4" s="8">
+        <f t="shared" ref="D4:D12" si="1">D3+0.5*($B3-D3)</f>
         <v>11275</v>
       </c>
-      <c r="K4" s="12">
-        <v>9800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6">
-        <v>97</v>
-      </c>
-      <c r="D5" s="14">
+      <c r="B5" s="14">
         <v>15200</v>
       </c>
-      <c r="E5" s="8">
+      <c r="C5" s="8">
         <f t="shared" si="0"/>
         <v>10227.5</v>
       </c>
-      <c r="F5" s="8">
+      <c r="D5" s="8">
         <f t="shared" si="1"/>
         <v>10537.5</v>
       </c>
-      <c r="K5" s="12">
-        <v>15200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6">
-        <v>129</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="B6" s="14">
         <v>11400</v>
       </c>
-      <c r="E6" s="8">
+      <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>10724.75</v>
       </c>
-      <c r="F6" s="8">
+      <c r="D6" s="8">
         <f t="shared" si="1"/>
         <v>12868.75</v>
       </c>
-      <c r="K6" s="12">
-        <v>11400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6">
-        <v>161</v>
-      </c>
-      <c r="D7" s="14">
+      <c r="B7" s="14">
         <v>13600</v>
       </c>
-      <c r="E7" s="8">
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
         <v>10792.275</v>
       </c>
-      <c r="F7" s="8">
+      <c r="D7" s="8">
         <f t="shared" si="1"/>
         <v>12134.375</v>
       </c>
-      <c r="K7" s="12">
-        <v>13600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6">
-        <v>193</v>
-      </c>
-      <c r="D8" s="14">
+      <c r="B8" s="14">
         <v>14800</v>
       </c>
-      <c r="E8" s="8">
+      <c r="C8" s="8">
         <f t="shared" si="0"/>
         <v>11073.047500000001</v>
       </c>
-      <c r="F8" s="8">
+      <c r="D8" s="8">
         <f t="shared" si="1"/>
         <v>12867.1875</v>
       </c>
-      <c r="K8" s="12">
-        <v>14800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6">
-        <v>225</v>
-      </c>
-      <c r="D9" s="14">
+      <c r="B9" s="14">
         <v>10900</v>
       </c>
-      <c r="E9" s="8">
+      <c r="C9" s="8">
         <f t="shared" si="0"/>
         <v>11445.742750000001</v>
       </c>
-      <c r="F9" s="8">
+      <c r="D9" s="8">
         <f t="shared" si="1"/>
         <v>13833.59375</v>
       </c>
-      <c r="K9" s="12">
-        <v>10900</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6">
-        <v>257</v>
-      </c>
-      <c r="D10" s="14">
+      <c r="B10" s="14">
         <v>9500</v>
       </c>
-      <c r="E10" s="8">
+      <c r="C10" s="8">
         <f t="shared" si="0"/>
         <v>11391.168475</v>
       </c>
-      <c r="F10" s="8">
+      <c r="D10" s="8">
         <f t="shared" si="1"/>
         <v>12366.796875</v>
       </c>
-      <c r="K10" s="12">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6">
-        <v>289</v>
-      </c>
-      <c r="D11" s="14">
+      <c r="B11" s="14">
         <v>16200</v>
       </c>
-      <c r="E11" s="8">
+      <c r="C11" s="8">
         <f t="shared" si="0"/>
         <v>11202.051627500001</v>
       </c>
-      <c r="F11" s="8">
+      <c r="D11" s="8">
         <f t="shared" si="1"/>
         <v>10933.3984375</v>
       </c>
-      <c r="K11" s="12">
-        <v>16200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="8">
+      <c r="C12" s="8">
         <f t="shared" si="0"/>
         <v>11701.84646475</v>
       </c>
-      <c r="F12" s="8">
+      <c r="D12" s="8">
         <f t="shared" si="1"/>
         <v>13566.69921875</v>
       </c>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I12" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="B15" s="13">
         <v>10500</v>
       </c>
-      <c r="E15" s="5">
+      <c r="C15" s="5">
         <v>10000</v>
       </c>
-      <c r="F15" s="5">
+      <c r="D15" s="5">
         <v>10000</v>
       </c>
-      <c r="G15" s="8">
-        <f>ABS($D15-E15)</f>
+      <c r="E15" s="8">
+        <f>ABS($B15-C15)</f>
         <v>500</v>
       </c>
-      <c r="H15" s="8">
-        <f>ABS($D15-F15)</f>
+      <c r="F15" s="8">
+        <f>ABS($B15-D15)</f>
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6">
-        <v>33</v>
-      </c>
-      <c r="D16" s="14">
+      <c r="B16" s="14">
         <v>12300</v>
       </c>
+      <c r="C16" s="8">
+        <f>C15+0.1*($B15-C15)</f>
+        <v>10050</v>
+      </c>
+      <c r="D16" s="8">
+        <f>D15+0.5*($B15-D15)</f>
+        <v>10250</v>
+      </c>
       <c r="E16" s="8">
-        <f>E15+0.1*($D15-E15)</f>
-        <v>10050</v>
+        <f t="shared" ref="E16:E24" si="2">ABS(B16-C16)</f>
+        <v>2250</v>
       </c>
       <c r="F16" s="8">
-        <f>F15+0.5*($D15-F15)</f>
-        <v>10250</v>
-      </c>
-      <c r="G16" s="8">
-        <f t="shared" ref="G16:G24" si="2">ABS(D16-E16)</f>
-        <v>2250</v>
-      </c>
-      <c r="H16" s="8">
-        <f t="shared" ref="H16:H24" si="3">ABS($D16-F16)</f>
+        <f t="shared" ref="F16:F24" si="3">ABS($B16-D16)</f>
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6">
-        <v>65</v>
-      </c>
-      <c r="D17" s="14">
+      <c r="B17" s="14">
         <v>9800</v>
       </c>
+      <c r="C17" s="8">
+        <f t="shared" ref="C17:C24" si="4">C16+0.1*($B16-C16)</f>
+        <v>10275</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" ref="D17:D24" si="5">D16+0.5*($B16-D16)</f>
+        <v>11275</v>
+      </c>
       <c r="E17" s="8">
-        <f t="shared" ref="E17:E24" si="4">E16+0.1*($D16-E16)</f>
-        <v>10275</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" ref="F17:F24" si="5">F16+0.5*($D16-F16)</f>
-        <v>11275</v>
-      </c>
-      <c r="G17" s="8">
         <f t="shared" si="2"/>
         <v>475</v>
       </c>
-      <c r="H17" s="8">
+      <c r="F17" s="8">
         <f t="shared" si="3"/>
         <v>1475</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>4</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6">
-        <v>97</v>
-      </c>
-      <c r="D18" s="14">
+      <c r="B18" s="14">
         <v>15200</v>
       </c>
-      <c r="E18" s="8">
+      <c r="C18" s="8">
         <f t="shared" si="4"/>
         <v>10227.5</v>
       </c>
-      <c r="F18" s="8">
+      <c r="D18" s="8">
         <f t="shared" si="5"/>
         <v>10537.5</v>
       </c>
-      <c r="G18" s="8">
+      <c r="E18" s="8">
         <f t="shared" si="2"/>
         <v>4972.5</v>
       </c>
-      <c r="H18" s="8">
+      <c r="F18" s="8">
         <f t="shared" si="3"/>
         <v>4662.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>5</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6">
-        <v>129</v>
-      </c>
-      <c r="D19" s="14">
+      <c r="B19" s="14">
         <v>11400</v>
       </c>
-      <c r="E19" s="8">
+      <c r="C19" s="8">
         <f t="shared" si="4"/>
         <v>10724.75</v>
       </c>
-      <c r="F19" s="8">
+      <c r="D19" s="8">
         <f t="shared" si="5"/>
         <v>12868.75</v>
       </c>
-      <c r="G19" s="8">
+      <c r="E19" s="8">
         <f t="shared" si="2"/>
         <v>675.25</v>
       </c>
-      <c r="H19" s="8">
+      <c r="F19" s="8">
         <f t="shared" si="3"/>
         <v>1468.75</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>6</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6">
-        <v>161</v>
-      </c>
-      <c r="D20" s="14">
+      <c r="B20" s="14">
         <v>13600</v>
       </c>
-      <c r="E20" s="8">
+      <c r="C20" s="8">
         <f t="shared" si="4"/>
         <v>10792.275</v>
       </c>
-      <c r="F20" s="8">
+      <c r="D20" s="8">
         <f t="shared" si="5"/>
         <v>12134.375</v>
       </c>
-      <c r="G20" s="8">
+      <c r="E20" s="8">
         <f t="shared" si="2"/>
         <v>2807.7250000000004</v>
       </c>
-      <c r="H20" s="8">
+      <c r="F20" s="8">
         <f t="shared" si="3"/>
         <v>1465.625</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>7</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6">
-        <v>193</v>
-      </c>
-      <c r="D21" s="14">
+      <c r="B21" s="14">
         <v>14800</v>
       </c>
-      <c r="E21" s="8">
+      <c r="C21" s="8">
         <f t="shared" si="4"/>
         <v>11073.047500000001</v>
       </c>
-      <c r="F21" s="8">
+      <c r="D21" s="8">
         <f t="shared" si="5"/>
         <v>12867.1875</v>
       </c>
-      <c r="G21" s="8">
+      <c r="E21" s="8">
         <f t="shared" si="2"/>
         <v>3726.9524999999994</v>
       </c>
-      <c r="H21" s="8">
+      <c r="F21" s="8">
         <f t="shared" si="3"/>
         <v>1932.8125</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>8</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6">
-        <v>225</v>
-      </c>
-      <c r="D22" s="14">
+      <c r="B22" s="14">
         <v>10900</v>
       </c>
-      <c r="E22" s="8">
+      <c r="C22" s="8">
         <f t="shared" si="4"/>
         <v>11445.742750000001</v>
       </c>
-      <c r="F22" s="8">
+      <c r="D22" s="8">
         <f t="shared" si="5"/>
         <v>13833.59375</v>
       </c>
-      <c r="G22" s="8">
+      <c r="E22" s="8">
         <f t="shared" si="2"/>
         <v>545.74275000000125</v>
       </c>
-      <c r="H22" s="8">
+      <c r="F22" s="8">
         <f t="shared" si="3"/>
         <v>2933.59375</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>9</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6">
-        <v>257</v>
-      </c>
-      <c r="D23" s="14">
+      <c r="B23" s="14">
         <v>9500</v>
       </c>
-      <c r="E23" s="8">
+      <c r="C23" s="8">
         <f t="shared" si="4"/>
         <v>11391.168475</v>
       </c>
-      <c r="F23" s="8">
+      <c r="D23" s="8">
         <f t="shared" si="5"/>
         <v>12366.796875</v>
       </c>
-      <c r="G23" s="8">
+      <c r="E23" s="8">
         <f t="shared" si="2"/>
         <v>1891.1684750000004</v>
       </c>
-      <c r="H23" s="8">
+      <c r="F23" s="8">
         <f t="shared" si="3"/>
         <v>2866.796875</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>10</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6">
-        <v>289</v>
-      </c>
-      <c r="D24" s="14">
+      <c r="B24" s="14">
         <v>16200</v>
       </c>
-      <c r="E24" s="8">
+      <c r="C24" s="8">
         <f t="shared" si="4"/>
         <v>11202.051627500001</v>
       </c>
-      <c r="F24" s="8">
+      <c r="D24" s="8">
         <f t="shared" si="5"/>
         <v>10933.3984375</v>
       </c>
-      <c r="G24" s="8">
+      <c r="E24" s="8">
         <f t="shared" si="2"/>
         <v>4997.9483724999991</v>
       </c>
-      <c r="H24" s="8">
+      <c r="F24" s="8">
         <f t="shared" si="3"/>
         <v>5266.6015625</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="19" t="s">
+      <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="8">
-        <f>SUM(G15:G24)</f>
+      <c r="E25" s="8">
+        <f>SUM(E15:E24)</f>
         <v>22842.287097500001</v>
       </c>
-      <c r="H25" s="8">
-        <f>SUM(H15:H24)</f>
+      <c r="F25" s="8">
+        <f>SUM(F15:F24)</f>
         <v>24621.6796875</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="19" t="s">
+      <c r="D26" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="8">
-        <f>G25/10</f>
+      <c r="E26" s="8">
+        <f>E25/10</f>
         <v>2284.2287097500002</v>
       </c>
-      <c r="H26" s="8">
-        <f>H25/10</f>
+      <c r="F26" s="8">
+        <f>F25/10</f>
         <v>2462.16796875</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>0</v>
+      <c r="B30" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1</v>
       </c>
-      <c r="B31" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C31" s="6">
-        <v>1</v>
-      </c>
-      <c r="D31" s="13">
+      <c r="B31" s="13">
         <v>10500</v>
       </c>
-      <c r="E31" s="5">
+      <c r="C31" s="5">
         <v>10000</v>
       </c>
-      <c r="F31" s="5">
+      <c r="D31" s="5">
         <v>10000</v>
       </c>
-      <c r="G31" s="8">
-        <f>ABS($D31-E31)^2</f>
+      <c r="E31" s="8">
+        <f>ABS($B31-C31)^2</f>
         <v>250000</v>
       </c>
-      <c r="H31" s="8">
-        <f>ABS($D31-F31)^2</f>
+      <c r="F31" s="8">
+        <f>ABS($B31-D31)^2</f>
         <v>250000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>2</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6">
-        <v>33</v>
-      </c>
-      <c r="D32" s="14">
+      <c r="B32" s="14">
         <v>12300</v>
       </c>
+      <c r="C32" s="8">
+        <f>C31+0.1*($B31-C31)</f>
+        <v>10050</v>
+      </c>
+      <c r="D32" s="8">
+        <f>D31+0.5*($B31-D31)</f>
+        <v>10250</v>
+      </c>
       <c r="E32" s="8">
-        <f>E31+0.1*($D31-E31)</f>
-        <v>10050</v>
+        <f t="shared" ref="E32:F40" si="6">ABS($B32-C32)^2</f>
+        <v>5062500</v>
       </c>
       <c r="F32" s="8">
-        <f>F31+0.5*($D31-F31)</f>
-        <v>10250</v>
-      </c>
-      <c r="G32" s="8">
-        <f t="shared" ref="G32:H40" si="6">ABS($D32-E32)^2</f>
-        <v>5062500</v>
-      </c>
-      <c r="H32" s="8">
         <f t="shared" si="6"/>
         <v>4202500</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>3</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6">
-        <v>65</v>
-      </c>
-      <c r="D33" s="14">
+      <c r="B33" s="14">
         <v>9800</v>
       </c>
+      <c r="C33" s="8">
+        <f t="shared" ref="C33:C40" si="7">C32+0.1*($B32-C32)</f>
+        <v>10275</v>
+      </c>
+      <c r="D33" s="8">
+        <f t="shared" ref="D33:D40" si="8">D32+0.5*($B32-D32)</f>
+        <v>11275</v>
+      </c>
       <c r="E33" s="8">
-        <f t="shared" ref="E33:E40" si="7">E32+0.1*($D32-E32)</f>
-        <v>10275</v>
-      </c>
-      <c r="F33" s="8">
-        <f t="shared" ref="F33:F40" si="8">F32+0.5*($D32-F32)</f>
-        <v>11275</v>
-      </c>
-      <c r="G33" s="8">
         <f t="shared" si="6"/>
         <v>225625</v>
       </c>
-      <c r="H33" s="8">
+      <c r="F33" s="8">
         <f t="shared" si="6"/>
         <v>2175625</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>4</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6">
-        <v>97</v>
-      </c>
-      <c r="D34" s="14">
+      <c r="B34" s="14">
         <v>15200</v>
       </c>
-      <c r="E34" s="8">
+      <c r="C34" s="8">
         <f t="shared" si="7"/>
         <v>10227.5</v>
       </c>
-      <c r="F34" s="8">
+      <c r="D34" s="8">
         <f t="shared" si="8"/>
         <v>10537.5</v>
       </c>
-      <c r="G34" s="8">
+      <c r="E34" s="8">
         <f t="shared" si="6"/>
         <v>24725756.25</v>
       </c>
-      <c r="H34" s="8">
+      <c r="F34" s="8">
         <f t="shared" si="6"/>
         <v>21738906.25</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>5</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6">
-        <v>129</v>
-      </c>
-      <c r="D35" s="14">
+      <c r="B35" s="14">
         <v>11400</v>
       </c>
-      <c r="E35" s="8">
+      <c r="C35" s="8">
         <f t="shared" si="7"/>
         <v>10724.75</v>
       </c>
-      <c r="F35" s="8">
+      <c r="D35" s="8">
         <f t="shared" si="8"/>
         <v>12868.75</v>
       </c>
-      <c r="G35" s="8">
+      <c r="E35" s="8">
         <f t="shared" si="6"/>
         <v>455962.5625</v>
       </c>
-      <c r="H35" s="8">
+      <c r="F35" s="8">
         <f t="shared" si="6"/>
         <v>2157226.5625</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>6</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6">
-        <v>161</v>
-      </c>
-      <c r="D36" s="14">
+      <c r="B36" s="14">
         <v>13600</v>
       </c>
-      <c r="E36" s="8">
+      <c r="C36" s="8">
         <f t="shared" si="7"/>
         <v>10792.275</v>
       </c>
-      <c r="F36" s="8">
+      <c r="D36" s="8">
         <f t="shared" si="8"/>
         <v>12134.375</v>
       </c>
-      <c r="G36" s="8">
+      <c r="E36" s="8">
         <f t="shared" si="6"/>
         <v>7883319.675625002</v>
       </c>
-      <c r="H36" s="8">
+      <c r="F36" s="8">
         <f t="shared" si="6"/>
         <v>2148056.640625</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>7</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6">
-        <v>193</v>
-      </c>
-      <c r="D37" s="14">
+      <c r="B37" s="14">
         <v>14800</v>
       </c>
-      <c r="E37" s="8">
+      <c r="C37" s="8">
         <f t="shared" si="7"/>
         <v>11073.047500000001</v>
       </c>
-      <c r="F37" s="8">
+      <c r="D37" s="8">
         <f t="shared" si="8"/>
         <v>12867.1875</v>
       </c>
-      <c r="G37" s="8">
+      <c r="E37" s="8">
         <f t="shared" si="6"/>
         <v>13890174.937256245</v>
       </c>
-      <c r="H37" s="8">
+      <c r="F37" s="8">
         <f t="shared" si="6"/>
         <v>3735764.16015625</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>8</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6">
-        <v>225</v>
-      </c>
-      <c r="D38" s="14">
+      <c r="B38" s="14">
         <v>10900</v>
       </c>
-      <c r="E38" s="8">
+      <c r="C38" s="8">
         <f t="shared" si="7"/>
         <v>11445.742750000001</v>
       </c>
-      <c r="F38" s="8">
+      <c r="D38" s="8">
         <f t="shared" si="8"/>
         <v>13833.59375</v>
       </c>
-      <c r="G38" s="8">
+      <c r="E38" s="8">
         <f t="shared" si="6"/>
         <v>297835.14917756384</v>
       </c>
-      <c r="H38" s="8">
+      <c r="F38" s="8">
         <f t="shared" si="6"/>
         <v>8605972.2900390625</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>9</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6">
-        <v>257</v>
-      </c>
-      <c r="D39" s="14">
+      <c r="B39" s="14">
         <v>9500</v>
       </c>
-      <c r="E39" s="8">
+      <c r="C39" s="8">
         <f t="shared" si="7"/>
         <v>11391.168475</v>
       </c>
-      <c r="F39" s="8">
+      <c r="D39" s="8">
         <f t="shared" si="8"/>
         <v>12366.796875</v>
       </c>
-      <c r="G39" s="8">
+      <c r="E39" s="8">
         <f t="shared" si="6"/>
         <v>3576518.2008338273</v>
       </c>
-      <c r="H39" s="8">
+      <c r="F39" s="8">
         <f t="shared" si="6"/>
         <v>8218524.3225097656</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>10</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6">
-        <v>289</v>
-      </c>
-      <c r="D40" s="14">
+      <c r="B40" s="14">
         <v>16200</v>
       </c>
-      <c r="E40" s="8">
+      <c r="C40" s="8">
         <f t="shared" si="7"/>
         <v>11202.051627500001</v>
       </c>
-      <c r="F40" s="8">
+      <c r="D40" s="8">
         <f t="shared" si="8"/>
         <v>10933.3984375</v>
       </c>
-      <c r="G40" s="8">
+      <c r="E40" s="8">
         <f t="shared" si="6"/>
         <v>24979487.934175391</v>
       </c>
-      <c r="H40" s="8">
+      <c r="F40" s="8">
         <f t="shared" si="6"/>
         <v>27737092.018127441</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="19" t="s">
+      <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="8">
-        <f>SUM(G31:G40)</f>
+      <c r="E41" s="8">
+        <f>SUM(E31:E40)</f>
         <v>81347179.709568039</v>
       </c>
-      <c r="H41" s="8">
-        <f>SUM(H31:H40)</f>
+      <c r="F41" s="8">
+        <f>SUM(F31:F40)</f>
         <v>80969667.24395752</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="19" t="s">
+      <c r="D42" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="8">
-        <f>G41/10</f>
+      <c r="E42" s="8">
+        <f>E41/10</f>
         <v>8134717.9709568042</v>
       </c>
-      <c r="H42" s="8">
-        <f>H41/10</f>
+      <c r="F42" s="8">
+        <f>F41/10</f>
         <v>8096966.724395752</v>
       </c>
     </row>

--- a/STAT/finalStat/Time_Serie.xlsx
+++ b/STAT/finalStat/Time_Serie.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sunny\Desktop\Problem-solving\STAT\finalStat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farm_Watcharakorn\Desktop\HomeWork\1-2\Problem Solving\Waranon\Problem-solving\STAT\finalStat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F497F812-B55E-4872-B7E5-6985E8EFCBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3270" windowWidth="15600" windowHeight="18840" activeTab="1" xr2:uid="{108CCCE1-71B9-4069-9CF7-4818888333E2}"/>
+    <workbookView xWindow="28680" yWindow="-3270" windowWidth="15600" windowHeight="18840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -182,7 +181,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{67B021BD-A78B-4F82-8036-6074CA7A3689}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -198,7 +197,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -474,7 +473,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-342A-4F7A-A346-A7AC86A532A3}"/>
             </c:ext>
@@ -681,7 +680,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-342A-4F7A-A346-A7AC86A532A3}"/>
             </c:ext>
@@ -888,7 +887,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-342A-4F7A-A346-A7AC86A532A3}"/>
             </c:ext>
@@ -902,11 +901,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1427865023"/>
-        <c:axId val="1427857823"/>
+        <c:axId val="1645307968"/>
+        <c:axId val="1647040256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1427865023"/>
+        <c:axId val="1645307968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -963,12 +962,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1427857823"/>
+        <c:crossAx val="1647040256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1427857823"/>
+        <c:axId val="1647040256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1022,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1427865023"/>
+        <c:crossAx val="1645307968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1068,14 +1067,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1686,7 +1685,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ABF4CFA-A500-8336-3271-A104A93C6E80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4ABF4CFA-A500-8336-3271-A104A93C6E80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,7 +2002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8757F56-6810-415E-922A-B3B799C40E4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView topLeftCell="A50" workbookViewId="0">
@@ -3958,17 +3957,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C950DD-7207-47A4-9DA4-DA0D823E4224}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="146" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">

--- a/STAT/finalStat/Time_Serie.xlsx
+++ b/STAT/finalStat/Time_Serie.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farm_Watcharakorn\Desktop\HomeWork\1-2\Problem Solving\Waranon\Problem-solving\STAT\finalStat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sunny\Desktop\Problem-solving\STAT\finalStat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD908CB-82CB-45EA-A47D-86E93E753EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3270" windowWidth="15600" windowHeight="18840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-3270" windowWidth="15600" windowHeight="18840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Test_Final" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
   <si>
     <t>Year</t>
   </si>
@@ -59,16 +61,34 @@
   <si>
     <t>sum</t>
   </si>
+  <si>
+    <t>Exponential Smoothing</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>3-Month Average</t>
+  </si>
+  <si>
+    <t>4-Month Average</t>
+  </si>
+  <si>
+    <t>Moving Average</t>
+  </si>
+  <si>
+    <t>Weighted Moving Average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +112,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -152,12 +193,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -178,10 +254,58 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -197,7 +321,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -473,7 +597,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-342A-4F7A-A346-A7AC86A532A3}"/>
             </c:ext>
@@ -680,7 +804,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-342A-4F7A-A346-A7AC86A532A3}"/>
             </c:ext>
@@ -887,7 +1011,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-342A-4F7A-A346-A7AC86A532A3}"/>
             </c:ext>
@@ -1067,14 +1191,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1685,7 +1809,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4ABF4CFA-A500-8336-3271-A104A93C6E80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ABF4CFA-A500-8336-3271-A104A93C6E80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2002,7 +2126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView topLeftCell="A50" workbookViewId="0">
@@ -3957,11 +4081,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="146" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A11" zoomScale="146" workbookViewId="0">
+      <selection sqref="A1:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4742,4 +4866,1240 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60FFB74-1A85-4380-BA09-DA95DEF384D3}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:F79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74:G74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4800</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14">
+        <v>4500</v>
+      </c>
+      <c r="C4" s="8">
+        <f>C3+0.1*($B3-C3)</f>
+        <v>4820</v>
+      </c>
+      <c r="D4" s="8">
+        <f>D3+0.5*($B3-D3)</f>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14">
+        <v>4800</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" ref="C5:C13" si="0">C4+0.1*($B4-C4)</f>
+        <v>4788</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" ref="D5:D13" si="1">D4+0.5*($B4-D4)</f>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14">
+        <v>5200</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" si="0"/>
+        <v>4789.2</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="1"/>
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14">
+        <v>4700</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" si="0"/>
+        <v>4830.28</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="1"/>
+        <v>4975</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14">
+        <v>5100</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
+        <v>4817.2519999999995</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="1"/>
+        <v>4837.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14">
+        <v>4600</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>4845.5267999999996</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="1"/>
+        <v>4968.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14">
+        <v>4800</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>4820.9741199999999</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="1"/>
+        <v>4784.375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="14">
+        <v>5300</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>4818.8767079999998</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="1"/>
+        <v>4792.1875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14">
+        <v>5000</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>4866.9890372</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="1"/>
+        <v>5046.09375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="8">
+        <f t="shared" si="0"/>
+        <v>4880.2901334799999</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="1"/>
+        <v>5023.046875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C16" s="5">
+        <v>4800</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4800</v>
+      </c>
+      <c r="E16" s="8">
+        <f>ABS($B16-C16)</f>
+        <v>200</v>
+      </c>
+      <c r="F16" s="8">
+        <f>ABS($B16-D16)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" s="14">
+        <v>4500</v>
+      </c>
+      <c r="C17" s="8">
+        <f>C16+0.1*($B16-C16)</f>
+        <v>4820</v>
+      </c>
+      <c r="D17" s="8">
+        <f>D16+0.5*($B16-D16)</f>
+        <v>4900</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" ref="E17:E25" si="2">ABS(B17-C17)</f>
+        <v>320</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" ref="F17:F25" si="3">ABS($B17-D17)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>3</v>
+      </c>
+      <c r="B18" s="14">
+        <v>4800</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" ref="C18:C25" si="4">C17+0.1*($B17-C17)</f>
+        <v>4788</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" ref="D18:D25" si="5">D17+0.5*($B17-D17)</f>
+        <v>4700</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>4</v>
+      </c>
+      <c r="B19" s="14">
+        <v>5200</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" si="4"/>
+        <v>4789.2</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="5"/>
+        <v>4750</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="2"/>
+        <v>410.80000000000018</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>5</v>
+      </c>
+      <c r="B20" s="14">
+        <v>4700</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" si="4"/>
+        <v>4830.28</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="5"/>
+        <v>4975</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="2"/>
+        <v>130.27999999999975</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="3"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>6</v>
+      </c>
+      <c r="B21" s="14">
+        <v>5100</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" si="4"/>
+        <v>4817.2519999999995</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="5"/>
+        <v>4837.5</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="2"/>
+        <v>282.7480000000005</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="3"/>
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>7</v>
+      </c>
+      <c r="B22" s="14">
+        <v>4600</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="4"/>
+        <v>4845.5267999999996</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="5"/>
+        <v>4968.75</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="2"/>
+        <v>245.52679999999964</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="3"/>
+        <v>368.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>8</v>
+      </c>
+      <c r="B23" s="14">
+        <v>4800</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="4"/>
+        <v>4820.9741199999999</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" si="5"/>
+        <v>4784.375</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="2"/>
+        <v>20.974119999999857</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="3"/>
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>9</v>
+      </c>
+      <c r="B24" s="14">
+        <v>5300</v>
+      </c>
+      <c r="C24" s="8">
+        <f t="shared" si="4"/>
+        <v>4818.8767079999998</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" si="5"/>
+        <v>4792.1875</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="2"/>
+        <v>481.12329200000022</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="3"/>
+        <v>507.8125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>10</v>
+      </c>
+      <c r="B25" s="14">
+        <v>5000</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" si="4"/>
+        <v>4866.9890372</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="5"/>
+        <v>5046.09375</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="2"/>
+        <v>133.01096280000002</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="3"/>
+        <v>46.09375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="8">
+        <f>SUM(E16:E25)</f>
+        <v>2236.4631748000002</v>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F16:F25)</f>
+        <v>2625.78125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="8">
+        <f>E26/10</f>
+        <v>223.64631748000002</v>
+      </c>
+      <c r="F27" s="8">
+        <f>F26/10</f>
+        <v>262.578125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
+      <c r="B32" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C32" s="5">
+        <v>4800</v>
+      </c>
+      <c r="D32" s="5">
+        <v>4800</v>
+      </c>
+      <c r="E32" s="8">
+        <f>ABS($B32-C32)^2</f>
+        <v>40000</v>
+      </c>
+      <c r="F32" s="8">
+        <f>ABS($B32-D32)^2</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>2</v>
+      </c>
+      <c r="B33" s="14">
+        <v>4500</v>
+      </c>
+      <c r="C33" s="8">
+        <f>C32+0.1*($B32-C32)</f>
+        <v>4820</v>
+      </c>
+      <c r="D33" s="8">
+        <f>D32+0.5*($B32-D32)</f>
+        <v>4900</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" ref="E33:F41" si="6">ABS($B33-C33)^2</f>
+        <v>102400</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="6"/>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>3</v>
+      </c>
+      <c r="B34" s="14">
+        <v>4800</v>
+      </c>
+      <c r="C34" s="8">
+        <f t="shared" ref="C34:C41" si="7">C33+0.1*($B33-C33)</f>
+        <v>4788</v>
+      </c>
+      <c r="D34" s="8">
+        <f t="shared" ref="D34:D41" si="8">D33+0.5*($B33-D33)</f>
+        <v>4700</v>
+      </c>
+      <c r="E34" s="8">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>4</v>
+      </c>
+      <c r="B35" s="14">
+        <v>5200</v>
+      </c>
+      <c r="C35" s="8">
+        <f t="shared" si="7"/>
+        <v>4789.2</v>
+      </c>
+      <c r="D35" s="8">
+        <f t="shared" si="8"/>
+        <v>4750</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" si="6"/>
+        <v>168756.64000000016</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="6"/>
+        <v>202500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>5</v>
+      </c>
+      <c r="B36" s="14">
+        <v>4700</v>
+      </c>
+      <c r="C36" s="8">
+        <f t="shared" si="7"/>
+        <v>4830.28</v>
+      </c>
+      <c r="D36" s="8">
+        <f t="shared" si="8"/>
+        <v>4975</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" si="6"/>
+        <v>16972.878399999932</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="6"/>
+        <v>75625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>6</v>
+      </c>
+      <c r="B37" s="14">
+        <v>5100</v>
+      </c>
+      <c r="C37" s="8">
+        <f t="shared" si="7"/>
+        <v>4817.2519999999995</v>
+      </c>
+      <c r="D37" s="8">
+        <f t="shared" si="8"/>
+        <v>4837.5</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" si="6"/>
+        <v>79946.431504000284</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" si="6"/>
+        <v>68906.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>7</v>
+      </c>
+      <c r="B38" s="14">
+        <v>4600</v>
+      </c>
+      <c r="C38" s="8">
+        <f t="shared" si="7"/>
+        <v>4845.5267999999996</v>
+      </c>
+      <c r="D38" s="8">
+        <f t="shared" si="8"/>
+        <v>4968.75</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="6"/>
+        <v>60283.409518239823</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="6"/>
+        <v>135976.5625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>8</v>
+      </c>
+      <c r="B39" s="14">
+        <v>4800</v>
+      </c>
+      <c r="C39" s="8">
+        <f t="shared" si="7"/>
+        <v>4820.9741199999999</v>
+      </c>
+      <c r="D39" s="8">
+        <f t="shared" si="8"/>
+        <v>4784.375</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" si="6"/>
+        <v>439.91370977439402</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="6"/>
+        <v>244.140625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>9</v>
+      </c>
+      <c r="B40" s="14">
+        <v>5300</v>
+      </c>
+      <c r="C40" s="8">
+        <f t="shared" si="7"/>
+        <v>4818.8767079999998</v>
+      </c>
+      <c r="D40" s="8">
+        <f t="shared" si="8"/>
+        <v>4792.1875</v>
+      </c>
+      <c r="E40" s="8">
+        <f t="shared" si="6"/>
+        <v>231479.62210491748</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="6"/>
+        <v>257873.53515625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>10</v>
+      </c>
+      <c r="B41" s="14">
+        <v>5000</v>
+      </c>
+      <c r="C41" s="8">
+        <f t="shared" si="7"/>
+        <v>4866.9890372</v>
+      </c>
+      <c r="D41" s="8">
+        <f t="shared" si="8"/>
+        <v>5046.09375</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" si="6"/>
+        <v>17691.91622498299</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="6"/>
+        <v>2124.6337890625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="8">
+        <f>SUM(E32:E41)</f>
+        <v>718114.81146191491</v>
+      </c>
+      <c r="F42" s="8">
+        <f>SUM(F32:F41)</f>
+        <v>953250.1220703125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="8">
+        <f>E42/10</f>
+        <v>71811.481146191494</v>
+      </c>
+      <c r="F43" s="8">
+        <f>F42/10</f>
+        <v>95325.01220703125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="23"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>1</v>
+      </c>
+      <c r="B51" s="13">
+        <v>85</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="27"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>2</v>
+      </c>
+      <c r="B52" s="14">
+        <v>141</v>
+      </c>
+      <c r="C52" s="26"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="27"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>3</v>
+      </c>
+      <c r="B53" s="14">
+        <v>77</v>
+      </c>
+      <c r="C53" s="26"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="27"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>4</v>
+      </c>
+      <c r="B54" s="14">
+        <v>122</v>
+      </c>
+      <c r="C54" s="26">
+        <f>AVERAGE(B51:B53)</f>
+        <v>101</v>
+      </c>
+      <c r="D54" s="27"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="27"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>5</v>
+      </c>
+      <c r="B55" s="14">
+        <v>116</v>
+      </c>
+      <c r="C55" s="26">
+        <f>AVERAGE(B52:B54)</f>
+        <v>113.33333333333333</v>
+      </c>
+      <c r="D55" s="27"/>
+      <c r="E55" s="26">
+        <f>AVERAGE(B51:B54)</f>
+        <v>106.25</v>
+      </c>
+      <c r="F55" s="27"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>6</v>
+      </c>
+      <c r="B56" s="14">
+        <v>94</v>
+      </c>
+      <c r="C56" s="26">
+        <f t="shared" ref="C56:C60" si="9">AVERAGE(B53:B55)</f>
+        <v>105</v>
+      </c>
+      <c r="D56" s="27"/>
+      <c r="E56" s="26">
+        <f t="shared" ref="E56:E60" si="10">AVERAGE(B52:B55)</f>
+        <v>114</v>
+      </c>
+      <c r="F56" s="27"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>7</v>
+      </c>
+      <c r="B57" s="14">
+        <v>123</v>
+      </c>
+      <c r="C57" s="26">
+        <f t="shared" si="9"/>
+        <v>110.66666666666667</v>
+      </c>
+      <c r="D57" s="27"/>
+      <c r="E57" s="26">
+        <f t="shared" si="10"/>
+        <v>102.25</v>
+      </c>
+      <c r="F57" s="27"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>8</v>
+      </c>
+      <c r="B58" s="14">
+        <v>105</v>
+      </c>
+      <c r="C58" s="26">
+        <f t="shared" si="9"/>
+        <v>111</v>
+      </c>
+      <c r="D58" s="27"/>
+      <c r="E58" s="26">
+        <f t="shared" si="10"/>
+        <v>113.75</v>
+      </c>
+      <c r="F58" s="27"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>9</v>
+      </c>
+      <c r="B59" s="14">
+        <v>113</v>
+      </c>
+      <c r="C59" s="26">
+        <f t="shared" si="9"/>
+        <v>107.33333333333333</v>
+      </c>
+      <c r="D59" s="27"/>
+      <c r="E59" s="26">
+        <f t="shared" si="10"/>
+        <v>109.5</v>
+      </c>
+      <c r="F59" s="27"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>10</v>
+      </c>
+      <c r="B60" s="14">
+        <v>135</v>
+      </c>
+      <c r="C60" s="26">
+        <f t="shared" si="9"/>
+        <v>113.66666666666667</v>
+      </c>
+      <c r="D60" s="27"/>
+      <c r="E60" s="26">
+        <f t="shared" si="10"/>
+        <v>108.75</v>
+      </c>
+      <c r="F60" s="27"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="26">
+        <f>AVERAGE(B58:B60)</f>
+        <v>117.66666666666667</v>
+      </c>
+      <c r="D61" s="27"/>
+      <c r="E61" s="26">
+        <f>AVERAGE(B57:B60)</f>
+        <v>119</v>
+      </c>
+      <c r="F61" s="27"/>
+    </row>
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="29"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="28">
+        <v>1</v>
+      </c>
+      <c r="B69" s="28"/>
+      <c r="C69" s="30">
+        <v>150</v>
+      </c>
+      <c r="D69" s="30"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="28">
+        <v>2</v>
+      </c>
+      <c r="B70" s="28"/>
+      <c r="C70" s="30">
+        <v>180</v>
+      </c>
+      <c r="D70" s="30"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="28">
+        <v>3</v>
+      </c>
+      <c r="B71" s="28"/>
+      <c r="C71" s="30">
+        <v>210</v>
+      </c>
+      <c r="D71" s="30"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="28">
+        <v>4</v>
+      </c>
+      <c r="B72" s="28"/>
+      <c r="C72" s="30">
+        <v>170</v>
+      </c>
+      <c r="D72" s="30"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="28">
+        <v>5</v>
+      </c>
+      <c r="B73" s="28"/>
+      <c r="C73" s="30">
+        <v>220</v>
+      </c>
+      <c r="D73" s="30"/>
+      <c r="E73" s="31">
+        <f>(C72*0.4)+(C71*0.3)+(C70*0.2)+(C69*0.1)</f>
+        <v>182</v>
+      </c>
+      <c r="F73" s="31"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="28">
+        <v>6</v>
+      </c>
+      <c r="B74" s="28"/>
+      <c r="C74" s="30">
+        <v>200</v>
+      </c>
+      <c r="D74" s="30"/>
+      <c r="E74" s="31">
+        <f t="shared" ref="E74:E79" si="11">(C73*0.4)+(C72*0.3)+(C71*0.2)+(C70*0.1)</f>
+        <v>199</v>
+      </c>
+      <c r="F74" s="31"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="28">
+        <v>7</v>
+      </c>
+      <c r="B75" s="28"/>
+      <c r="C75" s="30">
+        <v>190</v>
+      </c>
+      <c r="D75" s="30"/>
+      <c r="E75" s="31">
+        <f t="shared" si="11"/>
+        <v>201</v>
+      </c>
+      <c r="F75" s="31"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="28">
+        <v>8</v>
+      </c>
+      <c r="B76" s="28"/>
+      <c r="C76" s="30">
+        <v>160</v>
+      </c>
+      <c r="D76" s="30"/>
+      <c r="E76" s="31">
+        <f t="shared" si="11"/>
+        <v>197</v>
+      </c>
+      <c r="F76" s="31"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="28">
+        <v>9</v>
+      </c>
+      <c r="B77" s="28"/>
+      <c r="C77" s="30">
+        <v>230</v>
+      </c>
+      <c r="D77" s="30"/>
+      <c r="E77" s="31">
+        <f t="shared" si="11"/>
+        <v>183</v>
+      </c>
+      <c r="F77" s="31"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="28">
+        <v>10</v>
+      </c>
+      <c r="B78" s="28"/>
+      <c r="C78" s="30">
+        <v>210</v>
+      </c>
+      <c r="D78" s="30"/>
+      <c r="E78" s="31">
+        <f t="shared" si="11"/>
+        <v>198</v>
+      </c>
+      <c r="F78" s="31"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="32"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="31">
+        <f t="shared" si="11"/>
+        <v>204</v>
+      </c>
+      <c r="F79" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="63">
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="A66:F67"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="A48:F49"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/STAT/finalStat/Time_Serie.xlsx
+++ b/STAT/finalStat/Time_Serie.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sunny\Desktop\Problem-solving\STAT\finalStat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farm_Watcharakorn\Desktop\HomeWork\1-2\Problem Solving\Waranon\Problem-solving\STAT\finalStat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD908CB-82CB-45EA-A47D-86E93E753EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3270" windowWidth="15600" windowHeight="18840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3270" windowWidth="15600" windowHeight="18840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Test_Final" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
   <si>
     <t>Year</t>
   </si>
@@ -83,10 +82,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mmm"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -233,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -254,22 +254,46 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -278,34 +302,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -321,7 +327,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -361,6 +367,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -597,7 +604,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-342A-4F7A-A346-A7AC86A532A3}"/>
             </c:ext>
@@ -804,7 +811,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-342A-4F7A-A346-A7AC86A532A3}"/>
             </c:ext>
@@ -1011,7 +1018,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-342A-4F7A-A346-A7AC86A532A3}"/>
             </c:ext>
@@ -1025,11 +1032,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1645307968"/>
-        <c:axId val="1647040256"/>
+        <c:axId val="-2121547232"/>
+        <c:axId val="-2121553760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1645307968"/>
+        <c:axId val="-2121547232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,12 +1093,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1647040256"/>
+        <c:crossAx val="-2121553760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1647040256"/>
+        <c:axId val="-2121553760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,7 +1153,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1645307968"/>
+        <c:crossAx val="-2121547232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1160,6 +1167,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1191,14 +1199,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1809,7 +1817,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ABF4CFA-A500-8336-3271-A104A93C6E80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4ABF4CFA-A500-8336-3271-A104A93C6E80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2126,11 +2134,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection sqref="A1:H84"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4081,11 +4089,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="146" workbookViewId="0">
-      <selection sqref="A1:F42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="146" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4869,14 +4877,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60FFB74-1A85-4380-BA09-DA95DEF384D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74:G74"/>
+    <sheetView topLeftCell="A28" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4886,18 +4894,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -4911,175 +4919,175 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="13">
-        <v>5000</v>
+      <c r="B3" s="35">
+        <v>5</v>
       </c>
       <c r="C3" s="5">
-        <v>4800</v>
+        <v>4.8</v>
       </c>
       <c r="D3" s="5">
-        <v>4800</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="14">
-        <v>4500</v>
+      <c r="B4" s="36">
+        <v>4.5</v>
       </c>
       <c r="C4" s="8">
         <f>C3+0.1*($B3-C3)</f>
-        <v>4820</v>
+        <v>4.82</v>
       </c>
       <c r="D4" s="8">
         <f>D3+0.5*($B3-D3)</f>
-        <v>4900</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="14">
-        <v>4800</v>
+      <c r="B5" s="36">
+        <v>4.8</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" ref="C5:C13" si="0">C4+0.1*($B4-C4)</f>
-        <v>4788</v>
+        <v>4.7880000000000003</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" ref="D5:D13" si="1">D4+0.5*($B4-D4)</f>
-        <v>4700</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="14">
-        <v>5200</v>
+      <c r="B6" s="36">
+        <v>5.2</v>
       </c>
       <c r="C6" s="8">
         <f t="shared" si="0"/>
-        <v>4789.2</v>
+        <v>4.7892000000000001</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="1"/>
-        <v>4750</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="14">
-        <v>4700</v>
+      <c r="B7" s="36">
+        <v>4.7</v>
       </c>
       <c r="C7" s="8">
         <f t="shared" si="0"/>
-        <v>4830.28</v>
+        <v>4.8302800000000001</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="1"/>
-        <v>4975</v>
+        <v>4.9749999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="14">
-        <v>5100</v>
+      <c r="B8" s="36">
+        <v>5.0999999999999996</v>
       </c>
       <c r="C8" s="8">
         <f t="shared" si="0"/>
-        <v>4817.2519999999995</v>
+        <v>4.8172519999999999</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="1"/>
-        <v>4837.5</v>
+        <v>4.8375000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="14">
-        <v>4600</v>
+      <c r="B9" s="36">
+        <v>4.5999999999999996</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" si="0"/>
-        <v>4845.5267999999996</v>
+        <v>4.8455268</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="1"/>
-        <v>4968.75</v>
+        <v>4.96875</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="14">
-        <v>4800</v>
+      <c r="B10" s="36">
+        <v>4.8</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
-        <v>4820.9741199999999</v>
+        <v>4.8209741199999998</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="1"/>
-        <v>4784.375</v>
+        <v>4.7843749999999998</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="14">
-        <v>5300</v>
+      <c r="B11" s="36">
+        <v>5.3</v>
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>4818.8767079999998</v>
+        <v>4.8188767079999995</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="1"/>
-        <v>4792.1875</v>
+        <v>4.7921874999999998</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="14">
-        <v>5000</v>
+      <c r="B12" s="36">
+        <v>5</v>
       </c>
       <c r="C12" s="8">
         <f t="shared" si="0"/>
-        <v>4866.9890372</v>
+        <v>4.8669890371999998</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" si="1"/>
-        <v>5046.09375</v>
+        <v>5.0460937499999998</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="8">
         <f t="shared" si="0"/>
-        <v>4880.2901334799999</v>
+        <v>4.88029013348</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="1"/>
-        <v>5023.046875</v>
+        <v>5.0230468750000004</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -5099,254 +5107,258 @@
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="13">
-        <v>5000</v>
+      <c r="B16" s="35">
+        <v>5</v>
       </c>
       <c r="C16" s="5">
-        <v>4800</v>
+        <v>4.8</v>
       </c>
       <c r="D16" s="5">
-        <v>4800</v>
+        <v>4.8</v>
       </c>
       <c r="E16" s="8">
         <f>ABS($B16-C16)</f>
-        <v>200</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="F16" s="8">
         <f>ABS($B16-D16)</f>
-        <v>200</v>
+        <v>0.20000000000000018</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="14">
-        <v>4500</v>
+      <c r="B17" s="36">
+        <v>4.5</v>
       </c>
       <c r="C17" s="8">
         <f>C16+0.1*($B16-C16)</f>
-        <v>4820</v>
+        <v>4.82</v>
       </c>
       <c r="D17" s="8">
         <f>D16+0.5*($B16-D16)</f>
-        <v>4900</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E17" s="8">
         <f t="shared" ref="E17:E25" si="2">ABS(B17-C17)</f>
-        <v>320</v>
+        <v>0.32000000000000028</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" ref="F17:F25" si="3">ABS($B17-D17)</f>
-        <v>400</v>
+        <f>ABS($B17-D17)</f>
+        <v>0.40000000000000036</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="14">
-        <v>4800</v>
+      <c r="B18" s="36">
+        <v>4.8</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" ref="C18:C25" si="4">C17+0.1*($B17-C17)</f>
-        <v>4788</v>
+        <f t="shared" ref="C18:C26" si="3">C17+0.1*($B17-C17)</f>
+        <v>4.7880000000000003</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" ref="D18:D25" si="5">D17+0.5*($B17-D17)</f>
-        <v>4700</v>
+        <f t="shared" ref="D18:D26" si="4">D17+0.5*($B17-D17)</f>
+        <v>4.7</v>
       </c>
       <c r="E18" s="8">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1.1999999999999567E-2</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" ref="F17:F25" si="5">ABS($B18-D18)</f>
+        <v>9.9999999999999645E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="14">
-        <v>5200</v>
+      <c r="B19" s="36">
+        <v>5.2</v>
       </c>
       <c r="C19" s="8">
+        <f t="shared" si="3"/>
+        <v>4.7892000000000001</v>
+      </c>
+      <c r="D19" s="8">
         <f t="shared" si="4"/>
-        <v>4789.2</v>
-      </c>
-      <c r="D19" s="8">
-        <f t="shared" si="5"/>
-        <v>4750</v>
+        <v>4.75</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" si="2"/>
-        <v>410.80000000000018</v>
+        <v>0.41080000000000005</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="3"/>
-        <v>450</v>
+        <f t="shared" si="5"/>
+        <v>0.45000000000000018</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>5</v>
       </c>
-      <c r="B20" s="14">
-        <v>4700</v>
+      <c r="B20" s="36">
+        <v>4.7</v>
       </c>
       <c r="C20" s="8">
+        <f t="shared" si="3"/>
+        <v>4.8302800000000001</v>
+      </c>
+      <c r="D20" s="8">
         <f t="shared" si="4"/>
-        <v>4830.28</v>
-      </c>
-      <c r="D20" s="8">
-        <f t="shared" si="5"/>
-        <v>4975</v>
+        <v>4.9749999999999996</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" si="2"/>
-        <v>130.27999999999975</v>
+        <v>0.13027999999999995</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="3"/>
-        <v>275</v>
+        <f t="shared" si="5"/>
+        <v>0.27499999999999947</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>6</v>
       </c>
-      <c r="B21" s="14">
-        <v>5100</v>
+      <c r="B21" s="36">
+        <v>5.0999999999999996</v>
       </c>
       <c r="C21" s="8">
+        <f t="shared" si="3"/>
+        <v>4.8172519999999999</v>
+      </c>
+      <c r="D21" s="8">
         <f t="shared" si="4"/>
-        <v>4817.2519999999995</v>
-      </c>
-      <c r="D21" s="8">
-        <f t="shared" si="5"/>
-        <v>4837.5</v>
+        <v>4.8375000000000004</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" si="2"/>
-        <v>282.7480000000005</v>
+        <v>0.28274799999999978</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="3"/>
-        <v>262.5</v>
+        <f t="shared" si="5"/>
+        <v>0.26249999999999929</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>7</v>
       </c>
-      <c r="B22" s="14">
-        <v>4600</v>
+      <c r="B22" s="36">
+        <v>4.5999999999999996</v>
       </c>
       <c r="C22" s="8">
+        <f t="shared" si="3"/>
+        <v>4.8455268</v>
+      </c>
+      <c r="D22" s="8">
         <f t="shared" si="4"/>
-        <v>4845.5267999999996</v>
-      </c>
-      <c r="D22" s="8">
-        <f t="shared" si="5"/>
-        <v>4968.75</v>
+        <v>4.96875</v>
       </c>
       <c r="E22" s="8">
         <f t="shared" si="2"/>
-        <v>245.52679999999964</v>
+        <v>0.24552680000000038</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="3"/>
-        <v>368.75</v>
+        <f t="shared" si="5"/>
+        <v>0.36875000000000036</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>8</v>
       </c>
-      <c r="B23" s="14">
-        <v>4800</v>
+      <c r="B23" s="36">
+        <v>4.8</v>
       </c>
       <c r="C23" s="8">
+        <f t="shared" si="3"/>
+        <v>4.8209741199999998</v>
+      </c>
+      <c r="D23" s="8">
         <f t="shared" si="4"/>
-        <v>4820.9741199999999</v>
-      </c>
-      <c r="D23" s="8">
-        <f t="shared" si="5"/>
-        <v>4784.375</v>
+        <v>4.7843749999999998</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" si="2"/>
-        <v>20.974119999999857</v>
+        <v>2.0974119999999985E-2</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="3"/>
-        <v>15.625</v>
+        <f>ABS($B23-D23)</f>
+        <v>1.5625E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>9</v>
       </c>
-      <c r="B24" s="14">
-        <v>5300</v>
+      <c r="B24" s="36">
+        <v>5.3</v>
       </c>
       <c r="C24" s="8">
+        <f t="shared" si="3"/>
+        <v>4.8188767079999995</v>
+      </c>
+      <c r="D24" s="8">
         <f t="shared" si="4"/>
-        <v>4818.8767079999998</v>
-      </c>
-      <c r="D24" s="8">
-        <f t="shared" si="5"/>
-        <v>4792.1875</v>
+        <v>4.7921874999999998</v>
       </c>
       <c r="E24" s="8">
         <f t="shared" si="2"/>
-        <v>481.12329200000022</v>
+        <v>0.48112329200000037</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="3"/>
-        <v>507.8125</v>
+        <f t="shared" si="5"/>
+        <v>0.5078125</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>10</v>
       </c>
-      <c r="B25" s="14">
-        <v>5000</v>
+      <c r="B25" s="36">
+        <v>5</v>
       </c>
       <c r="C25" s="8">
+        <f t="shared" si="3"/>
+        <v>4.8669890371999998</v>
+      </c>
+      <c r="D25" s="8">
         <f t="shared" si="4"/>
-        <v>4866.9890372</v>
-      </c>
-      <c r="D25" s="8">
-        <f t="shared" si="5"/>
-        <v>5046.09375</v>
+        <v>5.0460937499999998</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" si="2"/>
-        <v>133.01096280000002</v>
+        <v>0.13301096280000024</v>
       </c>
       <c r="F25" s="8">
+        <f t="shared" si="5"/>
+        <v>4.6093749999999822E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="8">
         <f t="shared" si="3"/>
-        <v>46.09375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>4.88029013348</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" si="4"/>
+        <v>5.0230468750000004</v>
       </c>
       <c r="E26" s="8">
         <f>SUM(E16:E25)</f>
-        <v>2236.4631748000002</v>
+        <v>2.2364631748000008</v>
       </c>
       <c r="F26" s="8">
         <f>SUM(F16:F25)</f>
-        <v>2625.78125</v>
+        <v>2.6257812499999993</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5358,16 +5370,16 @@
       </c>
       <c r="E27" s="8">
         <f>E26/10</f>
-        <v>223.64631748000002</v>
+        <v>0.22364631748000008</v>
       </c>
       <c r="F27" s="8">
         <f>F26/10</f>
-        <v>262.578125</v>
+        <v>0.26257812499999994</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -5387,254 +5399,258 @@
       <c r="A32" s="4">
         <v>1</v>
       </c>
-      <c r="B32" s="13">
-        <v>5000</v>
+      <c r="B32" s="35">
+        <v>5</v>
       </c>
       <c r="C32" s="5">
-        <v>4800</v>
+        <v>4.8</v>
       </c>
       <c r="D32" s="5">
-        <v>4800</v>
+        <v>4.8</v>
       </c>
       <c r="E32" s="8">
         <f>ABS($B32-C32)^2</f>
-        <v>40000</v>
+        <v>4.000000000000007E-2</v>
       </c>
       <c r="F32" s="8">
         <f>ABS($B32-D32)^2</f>
-        <v>40000</v>
+        <v>4.000000000000007E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>2</v>
       </c>
-      <c r="B33" s="14">
-        <v>4500</v>
+      <c r="B33" s="36">
+        <v>4.5</v>
       </c>
       <c r="C33" s="8">
         <f>C32+0.1*($B32-C32)</f>
-        <v>4820</v>
+        <v>4.82</v>
       </c>
       <c r="D33" s="8">
         <f>D32+0.5*($B32-D32)</f>
-        <v>4900</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E33" s="8">
         <f t="shared" ref="E33:F41" si="6">ABS($B33-C33)^2</f>
-        <v>102400</v>
+        <v>0.10240000000000019</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" si="6"/>
-        <v>160000</v>
+        <v>0.16000000000000028</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>3</v>
       </c>
-      <c r="B34" s="14">
-        <v>4800</v>
+      <c r="B34" s="36">
+        <v>4.8</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" ref="C34:C41" si="7">C33+0.1*($B33-C33)</f>
-        <v>4788</v>
+        <f t="shared" ref="C34:C42" si="7">C33+0.1*($B33-C33)</f>
+        <v>4.7880000000000003</v>
       </c>
       <c r="D34" s="8">
-        <f t="shared" ref="D34:D41" si="8">D33+0.5*($B33-D33)</f>
-        <v>4700</v>
+        <f t="shared" ref="D34:D42" si="8">D33+0.5*($B33-D33)</f>
+        <v>4.7</v>
       </c>
       <c r="E34" s="8">
         <f t="shared" si="6"/>
-        <v>144</v>
+        <v>1.439999999999896E-4</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" si="6"/>
-        <v>10000</v>
+        <v>9.9999999999999291E-3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>4</v>
       </c>
-      <c r="B35" s="14">
-        <v>5200</v>
+      <c r="B35" s="36">
+        <v>5.2</v>
       </c>
       <c r="C35" s="8">
         <f t="shared" si="7"/>
-        <v>4789.2</v>
+        <v>4.7892000000000001</v>
       </c>
       <c r="D35" s="8">
         <f t="shared" si="8"/>
-        <v>4750</v>
+        <v>4.75</v>
       </c>
       <c r="E35" s="8">
         <f t="shared" si="6"/>
-        <v>168756.64000000016</v>
+        <v>0.16875664000000004</v>
       </c>
       <c r="F35" s="8">
         <f t="shared" si="6"/>
-        <v>202500</v>
+        <v>0.20250000000000015</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>5</v>
       </c>
-      <c r="B36" s="14">
-        <v>4700</v>
+      <c r="B36" s="36">
+        <v>4.7</v>
       </c>
       <c r="C36" s="8">
         <f t="shared" si="7"/>
-        <v>4830.28</v>
+        <v>4.8302800000000001</v>
       </c>
       <c r="D36" s="8">
         <f t="shared" si="8"/>
-        <v>4975</v>
+        <v>4.9749999999999996</v>
       </c>
       <c r="E36" s="8">
         <f t="shared" si="6"/>
-        <v>16972.878399999932</v>
+        <v>1.6972878399999988E-2</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" si="6"/>
-        <v>75625</v>
+        <v>7.5624999999999706E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>6</v>
       </c>
-      <c r="B37" s="14">
-        <v>5100</v>
+      <c r="B37" s="36">
+        <v>5.0999999999999996</v>
       </c>
       <c r="C37" s="8">
         <f t="shared" si="7"/>
-        <v>4817.2519999999995</v>
+        <v>4.8172519999999999</v>
       </c>
       <c r="D37" s="8">
         <f t="shared" si="8"/>
-        <v>4837.5</v>
+        <v>4.8375000000000004</v>
       </c>
       <c r="E37" s="8">
         <f t="shared" si="6"/>
-        <v>79946.431504000284</v>
+        <v>7.9946431503999868E-2</v>
       </c>
       <c r="F37" s="8">
         <f t="shared" si="6"/>
-        <v>68906.25</v>
+        <v>6.8906249999999628E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>7</v>
       </c>
-      <c r="B38" s="14">
-        <v>4600</v>
+      <c r="B38" s="36">
+        <v>4.5999999999999996</v>
       </c>
       <c r="C38" s="8">
         <f t="shared" si="7"/>
-        <v>4845.5267999999996</v>
+        <v>4.8455268</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" si="8"/>
-        <v>4968.75</v>
+        <v>4.96875</v>
       </c>
       <c r="E38" s="8">
         <f t="shared" si="6"/>
-        <v>60283.409518239823</v>
+        <v>6.0283409518240183E-2</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" si="6"/>
-        <v>135976.5625</v>
+        <v>0.13597656250000026</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>8</v>
       </c>
-      <c r="B39" s="14">
-        <v>4800</v>
+      <c r="B39" s="36">
+        <v>4.8</v>
       </c>
       <c r="C39" s="8">
         <f t="shared" si="7"/>
-        <v>4820.9741199999999</v>
+        <v>4.8209741199999998</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="8"/>
-        <v>4784.375</v>
+        <v>4.7843749999999998</v>
       </c>
       <c r="E39" s="8">
         <f t="shared" si="6"/>
-        <v>439.91370977439402</v>
+        <v>4.3991370977439936E-4</v>
       </c>
       <c r="F39" s="8">
         <f t="shared" si="6"/>
-        <v>244.140625</v>
+        <v>2.44140625E-4</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>9</v>
       </c>
-      <c r="B40" s="14">
-        <v>5300</v>
+      <c r="B40" s="36">
+        <v>5.3</v>
       </c>
       <c r="C40" s="8">
         <f t="shared" si="7"/>
-        <v>4818.8767079999998</v>
+        <v>4.8188767079999995</v>
       </c>
       <c r="D40" s="8">
         <f t="shared" si="8"/>
-        <v>4792.1875</v>
+        <v>4.7921874999999998</v>
       </c>
       <c r="E40" s="8">
         <f t="shared" si="6"/>
-        <v>231479.62210491748</v>
+        <v>0.23147962210491763</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" si="6"/>
-        <v>257873.53515625</v>
+        <v>0.25787353515625</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>10</v>
       </c>
-      <c r="B41" s="14">
-        <v>5000</v>
+      <c r="B41" s="36">
+        <v>5</v>
       </c>
       <c r="C41" s="8">
         <f t="shared" si="7"/>
-        <v>4866.9890372</v>
+        <v>4.8669890371999998</v>
       </c>
       <c r="D41" s="8">
         <f t="shared" si="8"/>
-        <v>5046.09375</v>
+        <v>5.0460937499999998</v>
       </c>
       <c r="E41" s="8">
         <f t="shared" si="6"/>
-        <v>17691.91622498299</v>
+        <v>1.7691916224983048E-2</v>
       </c>
       <c r="F41" s="8">
         <f t="shared" si="6"/>
-        <v>2124.6337890625</v>
+        <v>2.1246337890624837E-3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="17" t="s">
-        <v>10</v>
+      <c r="A42" s="15"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="8">
+        <f t="shared" si="7"/>
+        <v>4.88029013348</v>
+      </c>
+      <c r="D42" s="8">
+        <f t="shared" si="8"/>
+        <v>5.0230468750000004</v>
       </c>
       <c r="E42" s="8">
         <f>SUM(E32:E41)</f>
-        <v>718114.81146191491</v>
+        <v>0.71811481146191536</v>
       </c>
       <c r="F42" s="8">
         <f>SUM(F32:F41)</f>
-        <v>953250.1220703125</v>
+        <v>0.95325012207031246</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5646,44 +5662,44 @@
       </c>
       <c r="E43" s="8">
         <f>E42/10</f>
-        <v>71811.481146191494</v>
+        <v>7.1811481146191541E-2</v>
       </c>
       <c r="F43" s="8">
         <f>F42/10</f>
-        <v>95325.01220703125</v>
+        <v>9.532501220703124E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="22" t="s">
+      <c r="D50" s="29"/>
+      <c r="E50" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="23"/>
+      <c r="F50" s="29"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
@@ -5692,10 +5708,10 @@
       <c r="B51" s="13">
         <v>85</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="31"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
@@ -5704,10 +5720,10 @@
       <c r="B52" s="14">
         <v>141</v>
       </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="27"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="31"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
@@ -5716,10 +5732,10 @@
       <c r="B53" s="14">
         <v>77</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="27"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="31"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
@@ -5728,13 +5744,13 @@
       <c r="B54" s="14">
         <v>122</v>
       </c>
-      <c r="C54" s="26">
+      <c r="C54" s="30">
         <f>AVERAGE(B51:B53)</f>
         <v>101</v>
       </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="27"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="31"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
@@ -5743,16 +5759,16 @@
       <c r="B55" s="14">
         <v>116</v>
       </c>
-      <c r="C55" s="26">
+      <c r="C55" s="30">
         <f>AVERAGE(B52:B54)</f>
         <v>113.33333333333333</v>
       </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="26">
+      <c r="D55" s="31"/>
+      <c r="E55" s="30">
         <f>AVERAGE(B51:B54)</f>
         <v>106.25</v>
       </c>
-      <c r="F55" s="27"/>
+      <c r="F55" s="31"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
@@ -5761,16 +5777,16 @@
       <c r="B56" s="14">
         <v>94</v>
       </c>
-      <c r="C56" s="26">
+      <c r="C56" s="30">
         <f t="shared" ref="C56:C60" si="9">AVERAGE(B53:B55)</f>
         <v>105</v>
       </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="26">
+      <c r="D56" s="31"/>
+      <c r="E56" s="30">
         <f t="shared" ref="E56:E60" si="10">AVERAGE(B52:B55)</f>
         <v>114</v>
       </c>
-      <c r="F56" s="27"/>
+      <c r="F56" s="31"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
@@ -5779,16 +5795,16 @@
       <c r="B57" s="14">
         <v>123</v>
       </c>
-      <c r="C57" s="26">
+      <c r="C57" s="30">
         <f t="shared" si="9"/>
         <v>110.66666666666667</v>
       </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="26">
+      <c r="D57" s="31"/>
+      <c r="E57" s="30">
         <f t="shared" si="10"/>
         <v>102.25</v>
       </c>
-      <c r="F57" s="27"/>
+      <c r="F57" s="31"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -5797,16 +5813,16 @@
       <c r="B58" s="14">
         <v>105</v>
       </c>
-      <c r="C58" s="26">
+      <c r="C58" s="30">
         <f t="shared" si="9"/>
         <v>111</v>
       </c>
-      <c r="D58" s="27"/>
-      <c r="E58" s="26">
+      <c r="D58" s="31"/>
+      <c r="E58" s="30">
         <f t="shared" si="10"/>
         <v>113.75</v>
       </c>
-      <c r="F58" s="27"/>
+      <c r="F58" s="31"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -5815,16 +5831,16 @@
       <c r="B59" s="14">
         <v>113</v>
       </c>
-      <c r="C59" s="26">
+      <c r="C59" s="30">
         <f t="shared" si="9"/>
         <v>107.33333333333333</v>
       </c>
-      <c r="D59" s="27"/>
-      <c r="E59" s="26">
+      <c r="D59" s="31"/>
+      <c r="E59" s="30">
         <f t="shared" si="10"/>
         <v>109.5</v>
       </c>
-      <c r="F59" s="27"/>
+      <c r="F59" s="31"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
@@ -5833,223 +5849,234 @@
       <c r="B60" s="14">
         <v>135</v>
       </c>
-      <c r="C60" s="26">
+      <c r="C60" s="30">
         <f t="shared" si="9"/>
         <v>113.66666666666667</v>
       </c>
-      <c r="D60" s="27"/>
-      <c r="E60" s="26">
+      <c r="D60" s="31"/>
+      <c r="E60" s="30">
         <f t="shared" si="10"/>
         <v>108.75</v>
       </c>
-      <c r="F60" s="27"/>
+      <c r="F60" s="31"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="26">
+      <c r="C61" s="30">
         <f>AVERAGE(B58:B60)</f>
         <v>117.66666666666667</v>
       </c>
-      <c r="D61" s="27"/>
-      <c r="E61" s="26">
+      <c r="D61" s="31"/>
+      <c r="E61" s="30">
         <f>AVERAGE(B57:B60)</f>
         <v>119</v>
       </c>
-      <c r="F61" s="27"/>
+      <c r="F61" s="31"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="29" t="s">
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="29"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="28">
+      <c r="A69" s="20">
         <v>1</v>
       </c>
-      <c r="B69" s="28"/>
-      <c r="C69" s="30">
+      <c r="B69" s="20"/>
+      <c r="C69" s="23">
         <v>150</v>
       </c>
-      <c r="D69" s="30"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="28">
+      <c r="A70" s="20">
         <v>2</v>
       </c>
-      <c r="B70" s="28"/>
-      <c r="C70" s="30">
+      <c r="B70" s="20"/>
+      <c r="C70" s="23">
         <v>180</v>
       </c>
-      <c r="D70" s="30"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="28">
+      <c r="A71" s="20">
         <v>3</v>
       </c>
-      <c r="B71" s="28"/>
-      <c r="C71" s="30">
+      <c r="B71" s="20"/>
+      <c r="C71" s="23">
         <v>210</v>
       </c>
-      <c r="D71" s="30"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="28">
+      <c r="A72" s="20">
         <v>4</v>
       </c>
-      <c r="B72" s="28"/>
-      <c r="C72" s="30">
+      <c r="B72" s="20"/>
+      <c r="C72" s="23">
         <v>170</v>
       </c>
-      <c r="D72" s="30"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="28">
+      <c r="A73" s="20">
         <v>5</v>
       </c>
-      <c r="B73" s="28"/>
-      <c r="C73" s="30">
+      <c r="B73" s="20"/>
+      <c r="C73" s="23">
         <v>220</v>
       </c>
-      <c r="D73" s="30"/>
-      <c r="E73" s="31">
+      <c r="D73" s="23"/>
+      <c r="E73" s="24">
         <f>(C72*0.4)+(C71*0.3)+(C70*0.2)+(C69*0.1)</f>
         <v>182</v>
       </c>
-      <c r="F73" s="31"/>
+      <c r="F73" s="24"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="28">
+      <c r="A74" s="20">
         <v>6</v>
       </c>
-      <c r="B74" s="28"/>
-      <c r="C74" s="30">
+      <c r="B74" s="20"/>
+      <c r="C74" s="23">
         <v>200</v>
       </c>
-      <c r="D74" s="30"/>
-      <c r="E74" s="31">
+      <c r="D74" s="23"/>
+      <c r="E74" s="24">
         <f t="shared" ref="E74:E79" si="11">(C73*0.4)+(C72*0.3)+(C71*0.2)+(C70*0.1)</f>
         <v>199</v>
       </c>
-      <c r="F74" s="31"/>
+      <c r="F74" s="24"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="28">
+      <c r="A75" s="20">
         <v>7</v>
       </c>
-      <c r="B75" s="28"/>
-      <c r="C75" s="30">
+      <c r="B75" s="20"/>
+      <c r="C75" s="23">
         <v>190</v>
       </c>
-      <c r="D75" s="30"/>
-      <c r="E75" s="31">
+      <c r="D75" s="23"/>
+      <c r="E75" s="24">
         <f t="shared" si="11"/>
         <v>201</v>
       </c>
-      <c r="F75" s="31"/>
+      <c r="F75" s="24"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="28">
+      <c r="A76" s="20">
         <v>8</v>
       </c>
-      <c r="B76" s="28"/>
-      <c r="C76" s="30">
+      <c r="B76" s="20"/>
+      <c r="C76" s="23">
         <v>160</v>
       </c>
-      <c r="D76" s="30"/>
-      <c r="E76" s="31">
+      <c r="D76" s="23"/>
+      <c r="E76" s="24">
         <f t="shared" si="11"/>
         <v>197</v>
       </c>
-      <c r="F76" s="31"/>
+      <c r="F76" s="24"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="28">
+      <c r="A77" s="20">
         <v>9</v>
       </c>
-      <c r="B77" s="28"/>
-      <c r="C77" s="30">
+      <c r="B77" s="20"/>
+      <c r="C77" s="23">
         <v>230</v>
       </c>
-      <c r="D77" s="30"/>
-      <c r="E77" s="31">
+      <c r="D77" s="23"/>
+      <c r="E77" s="24">
         <f t="shared" si="11"/>
         <v>183</v>
       </c>
-      <c r="F77" s="31"/>
+      <c r="F77" s="24"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="28">
+      <c r="A78" s="20">
         <v>10</v>
       </c>
-      <c r="B78" s="28"/>
-      <c r="C78" s="30">
+      <c r="B78" s="20"/>
+      <c r="C78" s="23">
         <v>210</v>
       </c>
-      <c r="D78" s="30"/>
-      <c r="E78" s="31">
+      <c r="D78" s="23"/>
+      <c r="E78" s="24">
         <f t="shared" si="11"/>
         <v>198</v>
       </c>
-      <c r="F78" s="31"/>
+      <c r="F78" s="24"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="32"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="31">
-        <f t="shared" si="11"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="24">
+        <f>(C78*0.4)+(C77*0.3)+(C76*0.2)+(C75*0.1)</f>
         <v>204</v>
       </c>
-      <c r="F79" s="31"/>
+      <c r="F79" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="A66:F67"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="A48:F49"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="A68:B68"/>
@@ -6066,38 +6093,27 @@
     <mergeCell ref="E72:F72"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="A66:F67"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:F68"/>
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="E69:F69"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="A48:F49"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/STAT/finalStat/Time_Serie.xlsx
+++ b/STAT/finalStat/Time_Serie.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3270" windowWidth="15600" windowHeight="18840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-3270" windowWidth="15600" windowHeight="18840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -260,28 +260,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -290,24 +281,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,7 +367,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1032,11 +1031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2121547232"/>
-        <c:axId val="-2121553760"/>
+        <c:axId val="1396670544"/>
+        <c:axId val="1396667824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2121547232"/>
+        <c:axId val="1396670544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1093,12 +1092,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121553760"/>
+        <c:crossAx val="1396667824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2121553760"/>
+        <c:axId val="1396667824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1153,7 +1152,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121547232"/>
+        <c:crossAx val="1396670544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1167,7 +1166,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1817,7 +1815,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4ABF4CFA-A500-8336-3271-A104A93C6E80}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ABF4CFA-A500-8336-3271-A104A93C6E80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4092,7 +4090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="146" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="146" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -4883,8 +4881,8 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4897,11 +4895,11 @@
       <c r="A1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4919,170 +4917,170 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="35">
-        <v>5</v>
+      <c r="B3" s="20">
+        <v>5000</v>
       </c>
       <c r="C3" s="5">
-        <v>4.8</v>
+        <v>4800</v>
       </c>
       <c r="D3" s="5">
-        <v>4.8</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="36">
-        <v>4.5</v>
+      <c r="B4" s="21">
+        <v>4500</v>
       </c>
       <c r="C4" s="8">
         <f>C3+0.1*($B3-C3)</f>
-        <v>4.82</v>
+        <v>4820</v>
       </c>
       <c r="D4" s="8">
         <f>D3+0.5*($B3-D3)</f>
-        <v>4.9000000000000004</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="36">
-        <v>4.8</v>
+      <c r="B5" s="21">
+        <v>4800</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" ref="C5:C13" si="0">C4+0.1*($B4-C4)</f>
-        <v>4.7880000000000003</v>
+        <v>4788</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" ref="D5:D13" si="1">D4+0.5*($B4-D4)</f>
-        <v>4.7</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="36">
-        <v>5.2</v>
+      <c r="B6" s="21">
+        <v>5200</v>
       </c>
       <c r="C6" s="8">
         <f t="shared" si="0"/>
-        <v>4.7892000000000001</v>
+        <v>4789.2</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="1"/>
-        <v>4.75</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="36">
-        <v>4.7</v>
+      <c r="B7" s="21">
+        <v>4700</v>
       </c>
       <c r="C7" s="8">
         <f t="shared" si="0"/>
-        <v>4.8302800000000001</v>
+        <v>4830.28</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="1"/>
-        <v>4.9749999999999996</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="36">
-        <v>5.0999999999999996</v>
+      <c r="B8" s="21">
+        <v>5100</v>
       </c>
       <c r="C8" s="8">
         <f t="shared" si="0"/>
-        <v>4.8172519999999999</v>
+        <v>4817.2519999999995</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="1"/>
-        <v>4.8375000000000004</v>
+        <v>4837.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="36">
-        <v>4.5999999999999996</v>
+      <c r="B9" s="21">
+        <v>4600</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" si="0"/>
-        <v>4.8455268</v>
+        <v>4845.5267999999996</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="1"/>
-        <v>4.96875</v>
+        <v>4968.75</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="36">
-        <v>4.8</v>
+      <c r="B10" s="21">
+        <v>4800</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
-        <v>4.8209741199999998</v>
+        <v>4820.9741199999999</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="1"/>
-        <v>4.7843749999999998</v>
+        <v>4784.375</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="36">
-        <v>5.3</v>
+      <c r="B11" s="21">
+        <v>5300</v>
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>4.8188767079999995</v>
+        <v>4818.8767079999998</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="1"/>
-        <v>4.7921874999999998</v>
+        <v>4792.1875</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="36">
-        <v>5</v>
+      <c r="B12" s="21">
+        <v>5000</v>
       </c>
       <c r="C12" s="8">
         <f t="shared" si="0"/>
-        <v>4.8669890371999998</v>
+        <v>4866.9890372</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" si="1"/>
-        <v>5.0460937499999998</v>
+        <v>5046.09375</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="37"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="8">
         <f t="shared" si="0"/>
-        <v>4.88029013348</v>
+        <v>4880.2901334799999</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="1"/>
-        <v>5.0230468750000004</v>
+        <v>5023.046875</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5107,258 +5105,258 @@
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="35">
-        <v>5</v>
+      <c r="B16" s="20">
+        <v>5000</v>
       </c>
       <c r="C16" s="5">
-        <v>4.8</v>
+        <v>4800</v>
       </c>
       <c r="D16" s="5">
-        <v>4.8</v>
+        <v>4800</v>
       </c>
       <c r="E16" s="8">
         <f>ABS($B16-C16)</f>
-        <v>0.20000000000000018</v>
+        <v>200</v>
       </c>
       <c r="F16" s="8">
         <f>ABS($B16-D16)</f>
-        <v>0.20000000000000018</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="36">
-        <v>4.5</v>
+      <c r="B17" s="21">
+        <v>4500</v>
       </c>
       <c r="C17" s="8">
         <f>C16+0.1*($B16-C16)</f>
-        <v>4.82</v>
+        <v>4820</v>
       </c>
       <c r="D17" s="8">
         <f>D16+0.5*($B16-D16)</f>
-        <v>4.9000000000000004</v>
+        <v>4900</v>
       </c>
       <c r="E17" s="8">
         <f t="shared" ref="E17:E25" si="2">ABS(B17-C17)</f>
-        <v>0.32000000000000028</v>
+        <v>320</v>
       </c>
       <c r="F17" s="8">
         <f>ABS($B17-D17)</f>
-        <v>0.40000000000000036</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="36">
-        <v>4.8</v>
+      <c r="B18" s="21">
+        <v>4800</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" ref="C18:C26" si="3">C17+0.1*($B17-C17)</f>
-        <v>4.7880000000000003</v>
+        <f t="shared" ref="C18:C25" si="3">C17+0.1*($B17-C17)</f>
+        <v>4788</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" ref="D18:D26" si="4">D17+0.5*($B17-D17)</f>
-        <v>4.7</v>
+        <f t="shared" ref="D18:D25" si="4">D17+0.5*($B17-D17)</f>
+        <v>4700</v>
       </c>
       <c r="E18" s="8">
         <f t="shared" si="2"/>
-        <v>1.1999999999999567E-2</v>
+        <v>12</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" ref="F17:F25" si="5">ABS($B18-D18)</f>
-        <v>9.9999999999999645E-2</v>
+        <f t="shared" ref="F18:F25" si="5">ABS($B18-D18)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="36">
-        <v>5.2</v>
+      <c r="B19" s="21">
+        <v>5200</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" si="3"/>
-        <v>4.7892000000000001</v>
+        <v>4789.2</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="4"/>
-        <v>4.75</v>
+        <f>D18+0.5*($B18-D18)</f>
+        <v>4750</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" si="2"/>
-        <v>0.41080000000000005</v>
+        <v>410.80000000000018</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="5"/>
-        <v>0.45000000000000018</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>5</v>
       </c>
-      <c r="B20" s="36">
-        <v>4.7</v>
+      <c r="B20" s="21">
+        <v>4700</v>
       </c>
       <c r="C20" s="8">
         <f t="shared" si="3"/>
-        <v>4.8302800000000001</v>
+        <v>4830.28</v>
       </c>
       <c r="D20" s="8">
         <f t="shared" si="4"/>
-        <v>4.9749999999999996</v>
+        <v>4975</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" si="2"/>
-        <v>0.13027999999999995</v>
+        <v>130.27999999999975</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" si="5"/>
-        <v>0.27499999999999947</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>6</v>
       </c>
-      <c r="B21" s="36">
-        <v>5.0999999999999996</v>
+      <c r="B21" s="21">
+        <v>5100</v>
       </c>
       <c r="C21" s="8">
         <f t="shared" si="3"/>
-        <v>4.8172519999999999</v>
+        <v>4817.2519999999995</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="4"/>
-        <v>4.8375000000000004</v>
+        <v>4837.5</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" si="2"/>
-        <v>0.28274799999999978</v>
+        <v>282.7480000000005</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="5"/>
-        <v>0.26249999999999929</v>
+        <v>262.5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>7</v>
       </c>
-      <c r="B22" s="36">
-        <v>4.5999999999999996</v>
+      <c r="B22" s="21">
+        <v>4600</v>
       </c>
       <c r="C22" s="8">
         <f t="shared" si="3"/>
-        <v>4.8455268</v>
+        <v>4845.5267999999996</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" si="4"/>
-        <v>4.96875</v>
+        <v>4968.75</v>
       </c>
       <c r="E22" s="8">
         <f t="shared" si="2"/>
-        <v>0.24552680000000038</v>
+        <v>245.52679999999964</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" si="5"/>
-        <v>0.36875000000000036</v>
+        <v>368.75</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>8</v>
       </c>
-      <c r="B23" s="36">
-        <v>4.8</v>
+      <c r="B23" s="21">
+        <v>4800</v>
       </c>
       <c r="C23" s="8">
         <f t="shared" si="3"/>
-        <v>4.8209741199999998</v>
+        <v>4820.9741199999999</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" si="4"/>
-        <v>4.7843749999999998</v>
+        <v>4784.375</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" si="2"/>
-        <v>2.0974119999999985E-2</v>
+        <v>20.974119999999857</v>
       </c>
       <c r="F23" s="8">
         <f>ABS($B23-D23)</f>
-        <v>1.5625E-2</v>
+        <v>15.625</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>9</v>
       </c>
-      <c r="B24" s="36">
-        <v>5.3</v>
+      <c r="B24" s="21">
+        <v>5300</v>
       </c>
       <c r="C24" s="8">
         <f t="shared" si="3"/>
-        <v>4.8188767079999995</v>
+        <v>4818.8767079999998</v>
       </c>
       <c r="D24" s="8">
         <f t="shared" si="4"/>
-        <v>4.7921874999999998</v>
+        <v>4792.1875</v>
       </c>
       <c r="E24" s="8">
         <f t="shared" si="2"/>
-        <v>0.48112329200000037</v>
+        <v>481.12329200000022</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" si="5"/>
-        <v>0.5078125</v>
+        <v>507.8125</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>10</v>
       </c>
-      <c r="B25" s="36">
-        <v>5</v>
+      <c r="B25" s="21">
+        <v>5000</v>
       </c>
       <c r="C25" s="8">
         <f t="shared" si="3"/>
-        <v>4.8669890371999998</v>
+        <v>4866.9890372</v>
       </c>
       <c r="D25" s="8">
         <f t="shared" si="4"/>
-        <v>5.0460937499999998</v>
+        <v>5046.09375</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" si="2"/>
-        <v>0.13301096280000024</v>
+        <v>133.01096280000002</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" si="5"/>
-        <v>4.6093749999999822E-2</v>
+        <v>46.09375</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="37"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="8">
-        <f t="shared" si="3"/>
-        <v>4.88029013348</v>
+        <f t="shared" ref="C18:C26" si="6">C25+0.1*($B25-C25)</f>
+        <v>4880.2901334799999</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="4"/>
-        <v>5.0230468750000004</v>
+        <f t="shared" ref="D18:D26" si="7">D25+0.5*($B25-D25)</f>
+        <v>5023.046875</v>
       </c>
       <c r="E26" s="8">
         <f>SUM(E16:E25)</f>
-        <v>2.2364631748000008</v>
+        <v>2236.4631748000002</v>
       </c>
       <c r="F26" s="8">
         <f>SUM(F16:F25)</f>
-        <v>2.6257812499999993</v>
+        <v>2625.78125</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5370,11 +5368,11 @@
       </c>
       <c r="E27" s="8">
         <f>E26/10</f>
-        <v>0.22364631748000008</v>
+        <v>223.64631748000002</v>
       </c>
       <c r="F27" s="8">
         <f>F26/10</f>
-        <v>0.26257812499999994</v>
+        <v>262.578125</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -5399,258 +5397,258 @@
       <c r="A32" s="4">
         <v>1</v>
       </c>
-      <c r="B32" s="35">
-        <v>5</v>
+      <c r="B32" s="20">
+        <v>5000</v>
       </c>
       <c r="C32" s="5">
-        <v>4.8</v>
+        <v>4800</v>
       </c>
       <c r="D32" s="5">
-        <v>4.8</v>
+        <v>4800</v>
       </c>
       <c r="E32" s="8">
         <f>ABS($B32-C32)^2</f>
-        <v>4.000000000000007E-2</v>
+        <v>40000</v>
       </c>
       <c r="F32" s="8">
         <f>ABS($B32-D32)^2</f>
-        <v>4.000000000000007E-2</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>2</v>
       </c>
-      <c r="B33" s="36">
-        <v>4.5</v>
+      <c r="B33" s="21">
+        <v>4500</v>
       </c>
       <c r="C33" s="8">
         <f>C32+0.1*($B32-C32)</f>
-        <v>4.82</v>
+        <v>4820</v>
       </c>
       <c r="D33" s="8">
         <f>D32+0.5*($B32-D32)</f>
-        <v>4.9000000000000004</v>
+        <v>4900</v>
       </c>
       <c r="E33" s="8">
-        <f t="shared" ref="E33:F41" si="6">ABS($B33-C33)^2</f>
-        <v>0.10240000000000019</v>
+        <f t="shared" ref="E33:F41" si="8">ABS($B33-C33)^2</f>
+        <v>102400</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="6"/>
-        <v>0.16000000000000028</v>
+        <f t="shared" si="8"/>
+        <v>160000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>3</v>
       </c>
-      <c r="B34" s="36">
-        <v>4.8</v>
+      <c r="B34" s="21">
+        <v>4800</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" ref="C34:C42" si="7">C33+0.1*($B33-C33)</f>
-        <v>4.7880000000000003</v>
+        <f t="shared" ref="C34:C41" si="9">C33+0.1*($B33-C33)</f>
+        <v>4788</v>
       </c>
       <c r="D34" s="8">
-        <f t="shared" ref="D34:D42" si="8">D33+0.5*($B33-D33)</f>
-        <v>4.7</v>
+        <f t="shared" ref="D34:D41" si="10">D33+0.5*($B33-D33)</f>
+        <v>4700</v>
       </c>
       <c r="E34" s="8">
-        <f t="shared" si="6"/>
-        <v>1.439999999999896E-4</v>
+        <f t="shared" si="8"/>
+        <v>144</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="6"/>
-        <v>9.9999999999999291E-3</v>
+        <f t="shared" si="8"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>4</v>
       </c>
-      <c r="B35" s="36">
-        <v>5.2</v>
+      <c r="B35" s="21">
+        <v>5200</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" si="7"/>
-        <v>4.7892000000000001</v>
+        <f t="shared" si="9"/>
+        <v>4789.2</v>
       </c>
       <c r="D35" s="8">
+        <f t="shared" si="10"/>
+        <v>4750</v>
+      </c>
+      <c r="E35" s="8">
+        <f>ABS($B35-C35)^2</f>
+        <v>168756.64000000016</v>
+      </c>
+      <c r="F35" s="8">
         <f t="shared" si="8"/>
-        <v>4.75</v>
-      </c>
-      <c r="E35" s="8">
-        <f t="shared" si="6"/>
-        <v>0.16875664000000004</v>
-      </c>
-      <c r="F35" s="8">
-        <f t="shared" si="6"/>
-        <v>0.20250000000000015</v>
+        <v>202500</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>5</v>
       </c>
-      <c r="B36" s="36">
-        <v>4.7</v>
+      <c r="B36" s="21">
+        <v>4700</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" si="7"/>
-        <v>4.8302800000000001</v>
+        <f t="shared" si="9"/>
+        <v>4830.28</v>
       </c>
       <c r="D36" s="8">
+        <f t="shared" si="10"/>
+        <v>4975</v>
+      </c>
+      <c r="E36" s="8">
         <f t="shared" si="8"/>
-        <v>4.9749999999999996</v>
-      </c>
-      <c r="E36" s="8">
-        <f t="shared" si="6"/>
-        <v>1.6972878399999988E-2</v>
+        <v>16972.878399999932</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="6"/>
-        <v>7.5624999999999706E-2</v>
+        <f t="shared" si="8"/>
+        <v>75625</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>6</v>
       </c>
-      <c r="B37" s="36">
-        <v>5.0999999999999996</v>
+      <c r="B37" s="21">
+        <v>5100</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" si="7"/>
-        <v>4.8172519999999999</v>
+        <f t="shared" si="9"/>
+        <v>4817.2519999999995</v>
       </c>
       <c r="D37" s="8">
+        <f t="shared" si="10"/>
+        <v>4837.5</v>
+      </c>
+      <c r="E37" s="8">
         <f t="shared" si="8"/>
-        <v>4.8375000000000004</v>
-      </c>
-      <c r="E37" s="8">
-        <f t="shared" si="6"/>
-        <v>7.9946431503999868E-2</v>
+        <v>79946.431504000284</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" si="6"/>
-        <v>6.8906249999999628E-2</v>
+        <f t="shared" si="8"/>
+        <v>68906.25</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>7</v>
       </c>
-      <c r="B38" s="36">
-        <v>4.5999999999999996</v>
+      <c r="B38" s="21">
+        <v>4600</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" si="7"/>
-        <v>4.8455268</v>
+        <f t="shared" si="9"/>
+        <v>4845.5267999999996</v>
       </c>
       <c r="D38" s="8">
+        <f t="shared" si="10"/>
+        <v>4968.75</v>
+      </c>
+      <c r="E38" s="8">
         <f t="shared" si="8"/>
-        <v>4.96875</v>
-      </c>
-      <c r="E38" s="8">
-        <f t="shared" si="6"/>
-        <v>6.0283409518240183E-2</v>
+        <v>60283.409518239823</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="6"/>
-        <v>0.13597656250000026</v>
+        <f t="shared" si="8"/>
+        <v>135976.5625</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>8</v>
       </c>
-      <c r="B39" s="36">
-        <v>4.8</v>
+      <c r="B39" s="21">
+        <v>4800</v>
       </c>
       <c r="C39" s="8">
-        <f t="shared" si="7"/>
-        <v>4.8209741199999998</v>
+        <f t="shared" si="9"/>
+        <v>4820.9741199999999</v>
       </c>
       <c r="D39" s="8">
+        <f t="shared" si="10"/>
+        <v>4784.375</v>
+      </c>
+      <c r="E39" s="8">
         <f t="shared" si="8"/>
-        <v>4.7843749999999998</v>
-      </c>
-      <c r="E39" s="8">
-        <f t="shared" si="6"/>
-        <v>4.3991370977439936E-4</v>
+        <v>439.91370977439402</v>
       </c>
       <c r="F39" s="8">
-        <f t="shared" si="6"/>
-        <v>2.44140625E-4</v>
+        <f t="shared" si="8"/>
+        <v>244.140625</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>9</v>
       </c>
-      <c r="B40" s="36">
-        <v>5.3</v>
+      <c r="B40" s="21">
+        <v>5300</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" si="7"/>
-        <v>4.8188767079999995</v>
+        <f t="shared" si="9"/>
+        <v>4818.8767079999998</v>
       </c>
       <c r="D40" s="8">
+        <f t="shared" si="10"/>
+        <v>4792.1875</v>
+      </c>
+      <c r="E40" s="8">
         <f t="shared" si="8"/>
-        <v>4.7921874999999998</v>
-      </c>
-      <c r="E40" s="8">
-        <f t="shared" si="6"/>
-        <v>0.23147962210491763</v>
+        <v>231479.62210491748</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" si="6"/>
-        <v>0.25787353515625</v>
+        <f t="shared" si="8"/>
+        <v>257873.53515625</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>10</v>
       </c>
-      <c r="B41" s="36">
-        <v>5</v>
+      <c r="B41" s="21">
+        <v>5000</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" si="7"/>
-        <v>4.8669890371999998</v>
+        <f t="shared" si="9"/>
+        <v>4866.9890372</v>
       </c>
       <c r="D41" s="8">
+        <f t="shared" si="10"/>
+        <v>5046.09375</v>
+      </c>
+      <c r="E41" s="8">
         <f t="shared" si="8"/>
-        <v>5.0460937499999998</v>
-      </c>
-      <c r="E41" s="8">
-        <f t="shared" si="6"/>
-        <v>1.7691916224983048E-2</v>
+        <v>17691.91622498299</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="6"/>
-        <v>2.1246337890624837E-3</v>
+        <f t="shared" si="8"/>
+        <v>2124.6337890625</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
-      <c r="B42" s="37"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="8">
-        <f t="shared" si="7"/>
-        <v>4.88029013348</v>
+        <f t="shared" ref="C34:C42" si="11">C41+0.1*($B41-C41)</f>
+        <v>4880.2901334799999</v>
       </c>
       <c r="D42" s="8">
-        <f t="shared" si="8"/>
-        <v>5.0230468750000004</v>
+        <f t="shared" ref="D34:D42" si="12">D41+0.5*($B41-D41)</f>
+        <v>5023.046875</v>
       </c>
       <c r="E42" s="8">
         <f>SUM(E32:E41)</f>
-        <v>0.71811481146191536</v>
+        <v>718114.81146191491</v>
       </c>
       <c r="F42" s="8">
         <f>SUM(F32:F41)</f>
-        <v>0.95325012207031246</v>
+        <v>953250.1220703125</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5662,44 +5660,44 @@
       </c>
       <c r="E43" s="8">
         <f>E42/10</f>
-        <v>7.1811481146191541E-2</v>
+        <v>71811.481146191494</v>
       </c>
       <c r="F43" s="8">
         <f>F42/10</f>
-        <v>9.532501220703124E-2</v>
+        <v>95325.01220703125</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="28" t="s">
+      <c r="D50" s="28"/>
+      <c r="E50" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="29"/>
+      <c r="F50" s="28"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
@@ -5708,10 +5706,10 @@
       <c r="B51" s="13">
         <v>85</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="31"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="24"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
@@ -5720,10 +5718,10 @@
       <c r="B52" s="14">
         <v>141</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="31"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="24"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
@@ -5732,10 +5730,10 @@
       <c r="B53" s="14">
         <v>77</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="31"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="24"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
@@ -5744,13 +5742,13 @@
       <c r="B54" s="14">
         <v>122</v>
       </c>
-      <c r="C54" s="30">
+      <c r="C54" s="23">
         <f>AVERAGE(B51:B53)</f>
         <v>101</v>
       </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="31"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="24"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
@@ -5759,16 +5757,16 @@
       <c r="B55" s="14">
         <v>116</v>
       </c>
-      <c r="C55" s="30">
+      <c r="C55" s="23">
         <f>AVERAGE(B52:B54)</f>
         <v>113.33333333333333</v>
       </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="30">
+      <c r="D55" s="24"/>
+      <c r="E55" s="23">
         <f>AVERAGE(B51:B54)</f>
         <v>106.25</v>
       </c>
-      <c r="F55" s="31"/>
+      <c r="F55" s="24"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
@@ -5777,16 +5775,16 @@
       <c r="B56" s="14">
         <v>94</v>
       </c>
-      <c r="C56" s="30">
-        <f t="shared" ref="C56:C60" si="9">AVERAGE(B53:B55)</f>
+      <c r="C56" s="23">
+        <f t="shared" ref="C56:C60" si="13">AVERAGE(B53:B55)</f>
         <v>105</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="30">
-        <f t="shared" ref="E56:E60" si="10">AVERAGE(B52:B55)</f>
+      <c r="D56" s="24"/>
+      <c r="E56" s="23">
+        <f t="shared" ref="E56:E60" si="14">AVERAGE(B52:B55)</f>
         <v>114</v>
       </c>
-      <c r="F56" s="31"/>
+      <c r="F56" s="24"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
@@ -5795,16 +5793,16 @@
       <c r="B57" s="14">
         <v>123</v>
       </c>
-      <c r="C57" s="30">
-        <f t="shared" si="9"/>
+      <c r="C57" s="23">
+        <f t="shared" si="13"/>
         <v>110.66666666666667</v>
       </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="30">
-        <f t="shared" si="10"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="23">
+        <f t="shared" si="14"/>
         <v>102.25</v>
       </c>
-      <c r="F57" s="31"/>
+      <c r="F57" s="24"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -5813,16 +5811,16 @@
       <c r="B58" s="14">
         <v>105</v>
       </c>
-      <c r="C58" s="30">
-        <f t="shared" si="9"/>
+      <c r="C58" s="23">
+        <f t="shared" si="13"/>
         <v>111</v>
       </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="30">
-        <f t="shared" si="10"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="23">
+        <f t="shared" si="14"/>
         <v>113.75</v>
       </c>
-      <c r="F58" s="31"/>
+      <c r="F58" s="24"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -5831,16 +5829,16 @@
       <c r="B59" s="14">
         <v>113</v>
       </c>
-      <c r="C59" s="30">
-        <f t="shared" si="9"/>
+      <c r="C59" s="23">
+        <f t="shared" si="13"/>
         <v>107.33333333333333</v>
       </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="30">
-        <f t="shared" si="10"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="23">
+        <f t="shared" si="14"/>
         <v>109.5</v>
       </c>
-      <c r="F59" s="31"/>
+      <c r="F59" s="24"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
@@ -5849,28 +5847,28 @@
       <c r="B60" s="14">
         <v>135</v>
       </c>
-      <c r="C60" s="30">
-        <f t="shared" si="9"/>
+      <c r="C60" s="23">
+        <f t="shared" si="13"/>
         <v>113.66666666666667</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="30">
-        <f t="shared" si="10"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="23">
+        <f t="shared" si="14"/>
         <v>108.75</v>
       </c>
-      <c r="F60" s="31"/>
+      <c r="F60" s="24"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="30">
+      <c r="C61" s="23">
         <f>AVERAGE(B58:B60)</f>
         <v>117.66666666666667</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="30">
+      <c r="D61" s="24"/>
+      <c r="E61" s="23">
         <f>AVERAGE(B57:B60)</f>
         <v>119</v>
       </c>
-      <c r="F61" s="31"/>
+      <c r="F61" s="24"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
@@ -5891,192 +5889,187 @@
       <c r="F67" s="25"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="27" t="s">
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="27"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="20">
+      <c r="A69" s="35">
         <v>1</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="23">
+      <c r="B69" s="35"/>
+      <c r="C69" s="36">
         <v>150</v>
       </c>
-      <c r="D69" s="23"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="20">
+      <c r="A70" s="35">
         <v>2</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="23">
+      <c r="B70" s="35"/>
+      <c r="C70" s="36">
         <v>180</v>
       </c>
-      <c r="D70" s="23"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="20">
+      <c r="A71" s="35">
         <v>3</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="23">
+      <c r="B71" s="35"/>
+      <c r="C71" s="36">
         <v>210</v>
       </c>
-      <c r="D71" s="23"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="20">
+      <c r="A72" s="35">
         <v>4</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="23">
+      <c r="B72" s="35"/>
+      <c r="C72" s="36">
         <v>170</v>
       </c>
-      <c r="D72" s="23"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="20">
+      <c r="A73" s="35">
         <v>5</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="23">
+      <c r="B73" s="35"/>
+      <c r="C73" s="36">
         <v>220</v>
       </c>
-      <c r="D73" s="23"/>
-      <c r="E73" s="24">
+      <c r="D73" s="36"/>
+      <c r="E73" s="33">
         <f>(C72*0.4)+(C71*0.3)+(C70*0.2)+(C69*0.1)</f>
         <v>182</v>
       </c>
-      <c r="F73" s="24"/>
+      <c r="F73" s="33"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="20">
+      <c r="A74" s="35">
         <v>6</v>
       </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="23">
+      <c r="B74" s="35"/>
+      <c r="C74" s="36">
         <v>200</v>
       </c>
-      <c r="D74" s="23"/>
-      <c r="E74" s="24">
-        <f t="shared" ref="E74:E79" si="11">(C73*0.4)+(C72*0.3)+(C71*0.2)+(C70*0.1)</f>
+      <c r="D74" s="36"/>
+      <c r="E74" s="33">
+        <f t="shared" ref="E74:E78" si="15">(C73*0.4)+(C72*0.3)+(C71*0.2)+(C70*0.1)</f>
         <v>199</v>
       </c>
-      <c r="F74" s="24"/>
+      <c r="F74" s="33"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="20">
+      <c r="A75" s="35">
         <v>7</v>
       </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="23">
+      <c r="B75" s="35"/>
+      <c r="C75" s="36">
         <v>190</v>
       </c>
-      <c r="D75" s="23"/>
-      <c r="E75" s="24">
-        <f t="shared" si="11"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="33">
+        <f t="shared" si="15"/>
         <v>201</v>
       </c>
-      <c r="F75" s="24"/>
+      <c r="F75" s="33"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="20">
+      <c r="A76" s="35">
         <v>8</v>
       </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="23">
+      <c r="B76" s="35"/>
+      <c r="C76" s="36">
         <v>160</v>
       </c>
-      <c r="D76" s="23"/>
-      <c r="E76" s="24">
-        <f t="shared" si="11"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="33">
+        <f t="shared" si="15"/>
         <v>197</v>
       </c>
-      <c r="F76" s="24"/>
+      <c r="F76" s="33"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="20">
+      <c r="A77" s="35">
         <v>9</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="23">
+      <c r="B77" s="35"/>
+      <c r="C77" s="36">
         <v>230</v>
       </c>
-      <c r="D77" s="23"/>
-      <c r="E77" s="24">
-        <f t="shared" si="11"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="33">
+        <f t="shared" si="15"/>
         <v>183</v>
       </c>
-      <c r="F77" s="24"/>
+      <c r="F77" s="33"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="20">
+      <c r="A78" s="35">
         <v>10</v>
       </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="23">
+      <c r="B78" s="35"/>
+      <c r="C78" s="36">
         <v>210</v>
       </c>
-      <c r="D78" s="23"/>
-      <c r="E78" s="24">
-        <f t="shared" si="11"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="33">
+        <f t="shared" si="15"/>
         <v>198</v>
       </c>
-      <c r="F78" s="24"/>
+      <c r="F78" s="33"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="24">
+      <c r="A79" s="31"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="33">
         <f>(C78*0.4)+(C77*0.3)+(C76*0.2)+(C75*0.1)</f>
         <v>204</v>
       </c>
-      <c r="F79" s="24"/>
+      <c r="F79" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="A48:F49"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="A66:F67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="A68:B68"/>
@@ -6093,27 +6086,32 @@
     <mergeCell ref="E72:F72"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="A66:F67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="A48:F49"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
